--- a/data/update2019/ospree_2019update_DSS.xlsx
+++ b/data/update2019/ospree_2019update_DSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/ospree/data/update2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A9B844-64FD-1541-BBD4-1670679D1BF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C9716A-1CA2-7144-9464-06DEC4BE8E9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="25040" windowHeight="14720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9400" yWindow="460" windowWidth="25040" windowHeight="14720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -19,13 +19,19 @@
     <sheet name="data_detailed" sheetId="1" r:id="rId4"/>
     <sheet name="scratch" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -81,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6184" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5960" uniqueCount="355">
   <si>
     <t>datasetID</t>
   </si>
@@ -1137,9 +1143,6 @@
     <t>50% (+/- 10%)</t>
   </si>
   <si>
-    <t>percentbudburst</t>
-  </si>
-  <si>
     <t>daystobudburst</t>
   </si>
   <si>
@@ -1149,7 +1152,7 @@
     <t>AB doesn't include %budburst. Some species provenences are given as a range of values, Wienberger experiment</t>
   </si>
   <si>
-    <t>thermaltimetodays</t>
+    <t>thermaltimetohours</t>
   </si>
 </sst>
 </file>
@@ -1351,6 +1354,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1360,7 +1364,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2318,7 +2321,7 @@
       <c r="B79" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="21" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2329,7 +2332,7 @@
       <c r="B80" t="s">
         <v>85</v>
       </c>
-      <c r="C80" s="20"/>
+      <c r="C80" s="21"/>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
@@ -2370,7 +2373,7 @@
       <c r="B85" t="s">
         <v>93</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="21" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2381,7 +2384,7 @@
       <c r="B86" t="s">
         <v>96</v>
       </c>
-      <c r="C86" s="20"/>
+      <c r="C86" s="21"/>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
@@ -2453,7 +2456,7 @@
       <c r="B96" t="s">
         <v>110</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="21" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2464,7 +2467,7 @@
       <c r="B97" t="s">
         <v>112</v>
       </c>
-      <c r="C97" s="22"/>
+      <c r="C97" s="23"/>
     </row>
     <row r="98" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
@@ -2473,7 +2476,7 @@
       <c r="B98" t="s">
         <v>113</v>
       </c>
-      <c r="C98" s="22"/>
+      <c r="C98" s="23"/>
     </row>
     <row r="99" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -2482,7 +2485,7 @@
       <c r="B99" t="s">
         <v>114</v>
       </c>
-      <c r="C99" s="22"/>
+      <c r="C99" s="23"/>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
@@ -2491,7 +2494,7 @@
       <c r="B100" t="s">
         <v>116</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="21" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2502,7 +2505,7 @@
       <c r="B101" t="s">
         <v>119</v>
       </c>
-      <c r="C101" s="20"/>
+      <c r="C101" s="21"/>
     </row>
     <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
@@ -2511,7 +2514,7 @@
       <c r="B102" t="s">
         <v>121</v>
       </c>
-      <c r="C102" s="20"/>
+      <c r="C102" s="21"/>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
@@ -2520,7 +2523,7 @@
       <c r="B103" t="s">
         <v>123</v>
       </c>
-      <c r="C103" s="20"/>
+      <c r="C103" s="21"/>
     </row>
     <row r="104" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
@@ -2529,7 +2532,7 @@
       <c r="B104" t="s">
         <v>125</v>
       </c>
-      <c r="C104" s="20"/>
+      <c r="C104" s="21"/>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
@@ -2601,8 +2604,8 @@
       <c r="B116" s="11"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="21"/>
-      <c r="B117" s="21"/>
+      <c r="A117" s="22"/>
+      <c r="B117" s="22"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="12"/>
@@ -3241,7 +3244,7 @@
         <v>345</v>
       </c>
       <c r="F2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I2">
         <v>16</v>
@@ -3259,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -3302,8 +3305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BT406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3543,11 +3546,11 @@
       <c r="X2">
         <v>10</v>
       </c>
-      <c r="Y2" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>351</v>
+      <c r="Y2" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>57491.961000000003</v>
@@ -3626,11 +3629,11 @@
       <c r="X3">
         <v>10</v>
       </c>
-      <c r="Y3" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>351</v>
+      <c r="Y3" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>50739.55</v>
@@ -3754,11 +3757,11 @@
       <c r="X4">
         <v>10</v>
       </c>
-      <c r="Y4" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>351</v>
+      <c r="Y4" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>44758.841999999997</v>
@@ -3837,11 +3840,11 @@
       <c r="X5">
         <v>10</v>
       </c>
-      <c r="Y5" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>351</v>
+      <c r="Y5" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>38778.135000000002</v>
@@ -3920,11 +3923,11 @@
       <c r="X6">
         <v>10</v>
       </c>
-      <c r="Y6" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>351</v>
+      <c r="Y6" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
       </c>
       <c r="AA6">
         <v>19485.530999999999</v>
@@ -4003,11 +4006,11 @@
       <c r="X7">
         <v>10</v>
       </c>
-      <c r="Y7" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>351</v>
+      <c r="Y7" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
       </c>
       <c r="AA7">
         <v>19871.383000000002</v>
@@ -4086,11 +4089,11 @@
       <c r="X8">
         <v>10</v>
       </c>
-      <c r="Y8" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>351</v>
+      <c r="Y8" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>14083.601000000001</v>
@@ -4172,11 +4175,11 @@
       <c r="X9">
         <v>10</v>
       </c>
-      <c r="Y9" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>351</v>
+      <c r="Y9" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>11575.563</v>
@@ -4258,11 +4261,11 @@
       <c r="X10">
         <v>10</v>
       </c>
-      <c r="Y10" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>351</v>
+      <c r="Y10" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>8681.6720000000005</v>
@@ -4344,11 +4347,11 @@
       <c r="X11">
         <v>10</v>
       </c>
-      <c r="Y11" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>351</v>
+      <c r="Y11" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
       </c>
       <c r="AA11">
         <v>8874.598</v>
@@ -4430,11 +4433,11 @@
       <c r="X12">
         <v>10</v>
       </c>
-      <c r="Y12" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>351</v>
+      <c r="Y12" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>7138.2640000000001</v>
@@ -4516,11 +4519,11 @@
       <c r="X13">
         <v>10</v>
       </c>
-      <c r="Y13" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>351</v>
+      <c r="Y13" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>7717.0420000000004</v>
@@ -4602,11 +4605,11 @@
       <c r="X14">
         <v>10</v>
       </c>
-      <c r="Y14" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>351</v>
+      <c r="Y14" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>7909.9679999999998</v>
@@ -4688,11 +4691,11 @@
       <c r="X15">
         <v>10</v>
       </c>
-      <c r="Y15" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>351</v>
+      <c r="Y15" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>6945.3379999999997</v>
@@ -4774,11 +4777,11 @@
       <c r="X16">
         <v>10</v>
       </c>
-      <c r="Y16" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>351</v>
+      <c r="Y16" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>4630.2250000000004</v>
@@ -4860,11 +4863,11 @@
       <c r="X17">
         <v>10</v>
       </c>
-      <c r="Y17" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>351</v>
+      <c r="Y17" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
       </c>
       <c r="AA17">
         <v>4630.2250000000004</v>
@@ -4946,11 +4949,11 @@
       <c r="X18">
         <v>10</v>
       </c>
-      <c r="Y18" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>351</v>
+      <c r="Y18" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
       </c>
       <c r="AA18">
         <v>57491.961000000003</v>
@@ -5032,11 +5035,11 @@
       <c r="X19">
         <v>10</v>
       </c>
-      <c r="Y19" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>351</v>
+      <c r="Y19" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
       </c>
       <c r="AA19">
         <v>50739.55</v>
@@ -5118,11 +5121,11 @@
       <c r="X20">
         <v>10</v>
       </c>
-      <c r="Y20" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>351</v>
+      <c r="Y20" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
       </c>
       <c r="AA20">
         <v>44758.841999999997</v>
@@ -5204,11 +5207,11 @@
       <c r="X21">
         <v>10</v>
       </c>
-      <c r="Y21" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>351</v>
+      <c r="Y21" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>38778.135000000002</v>
@@ -5290,11 +5293,11 @@
       <c r="X22">
         <v>10</v>
       </c>
-      <c r="Y22" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>351</v>
+      <c r="Y22" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
       </c>
       <c r="AA22">
         <v>19485.530999999999</v>
@@ -5376,11 +5379,11 @@
       <c r="X23">
         <v>10</v>
       </c>
-      <c r="Y23" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>351</v>
+      <c r="Y23" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
       </c>
       <c r="AA23">
         <v>19871.383000000002</v>
@@ -5459,11 +5462,11 @@
       <c r="X24">
         <v>10</v>
       </c>
-      <c r="Y24" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>351</v>
+      <c r="Y24" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
       </c>
       <c r="AA24">
         <v>14083.601000000001</v>
@@ -5542,11 +5545,11 @@
       <c r="X25">
         <v>10</v>
       </c>
-      <c r="Y25" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>351</v>
+      <c r="Y25" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
       </c>
       <c r="AA25">
         <v>11575.563</v>
@@ -5625,11 +5628,11 @@
       <c r="X26">
         <v>10</v>
       </c>
-      <c r="Y26" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>351</v>
+      <c r="Y26" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
       </c>
       <c r="AA26">
         <v>8681.6720000000005</v>
@@ -5708,11 +5711,11 @@
       <c r="X27">
         <v>10</v>
       </c>
-      <c r="Y27" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>351</v>
+      <c r="Y27" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
       </c>
       <c r="AA27">
         <v>8874.598</v>
@@ -5791,11 +5794,11 @@
       <c r="X28">
         <v>10</v>
       </c>
-      <c r="Y28" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>351</v>
+      <c r="Y28" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
       </c>
       <c r="AA28">
         <v>7138.2640000000001</v>
@@ -5874,11 +5877,11 @@
       <c r="X29">
         <v>10</v>
       </c>
-      <c r="Y29" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>351</v>
+      <c r="Y29" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
       </c>
       <c r="AA29">
         <v>7717.0420000000004</v>
@@ -5957,11 +5960,11 @@
       <c r="X30">
         <v>10</v>
       </c>
-      <c r="Y30" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>351</v>
+      <c r="Y30" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
       </c>
       <c r="AA30">
         <v>7909.9679999999998</v>
@@ -6040,11 +6043,11 @@
       <c r="X31">
         <v>10</v>
       </c>
-      <c r="Y31" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>351</v>
+      <c r="Y31" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
       </c>
       <c r="AA31">
         <v>6945.3379999999997</v>
@@ -6123,11 +6126,11 @@
       <c r="X32">
         <v>10</v>
       </c>
-      <c r="Y32" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>351</v>
+      <c r="Y32" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
       </c>
       <c r="AA32">
         <v>4630.2250000000004</v>
@@ -6206,11 +6209,11 @@
       <c r="X33">
         <v>10</v>
       </c>
-      <c r="Y33" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>351</v>
+      <c r="Y33" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
       </c>
       <c r="AA33">
         <v>4630.2250000000004</v>
@@ -6289,11 +6292,11 @@
       <c r="X34">
         <v>10</v>
       </c>
-      <c r="Y34" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>351</v>
+      <c r="Y34" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
       </c>
       <c r="AA34">
         <v>50618.892999999996</v>
@@ -6372,11 +6375,11 @@
       <c r="X35">
         <v>10</v>
       </c>
-      <c r="Y35" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>351</v>
+      <c r="Y35" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
       </c>
       <c r="AA35">
         <v>48078.175999999999</v>
@@ -6455,11 +6458,11 @@
       <c r="X36">
         <v>10</v>
       </c>
-      <c r="Y36" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>351</v>
+      <c r="Y36" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
       </c>
       <c r="AA36">
         <v>33615.635000000002</v>
@@ -6538,11 +6541,11 @@
       <c r="X37">
         <v>10</v>
       </c>
-      <c r="Y37" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>351</v>
+      <c r="Y37" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
       </c>
       <c r="AA37">
         <v>28534.202000000001</v>
@@ -6621,11 +6624,11 @@
       <c r="X38">
         <v>10</v>
       </c>
-      <c r="Y38" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>351</v>
+      <c r="Y38" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
       </c>
       <c r="AA38">
         <v>13680.781999999999</v>
@@ -6704,11 +6707,11 @@
       <c r="X39">
         <v>10</v>
       </c>
-      <c r="Y39" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>351</v>
+      <c r="Y39" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
       </c>
       <c r="AA39">
         <v>8990.2279999999992</v>
@@ -6787,11 +6790,11 @@
       <c r="X40">
         <v>10</v>
       </c>
-      <c r="Y40" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>351</v>
+      <c r="Y40" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
       </c>
       <c r="AA40">
         <v>7231.27</v>
@@ -6870,11 +6873,11 @@
       <c r="X41">
         <v>10</v>
       </c>
-      <c r="Y41" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>351</v>
+      <c r="Y41" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
       </c>
       <c r="AA41">
         <v>5472.3130000000001</v>
@@ -6953,11 +6956,11 @@
       <c r="X42">
         <v>10</v>
       </c>
-      <c r="Y42" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>351</v>
+      <c r="Y42" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
       </c>
       <c r="AA42">
         <v>4885.9930000000004</v>
@@ -7036,11 +7039,11 @@
       <c r="X43">
         <v>10</v>
       </c>
-      <c r="Y43" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>351</v>
+      <c r="Y43" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
       </c>
       <c r="AA43">
         <v>4690.5540000000001</v>
@@ -7119,11 +7122,11 @@
       <c r="X44">
         <v>10</v>
       </c>
-      <c r="Y44" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>351</v>
+      <c r="Y44" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
       </c>
       <c r="AA44">
         <v>4104.2349999999997</v>
@@ -7202,11 +7205,11 @@
       <c r="X45">
         <v>10</v>
       </c>
-      <c r="Y45" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>351</v>
+      <c r="Y45" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
       </c>
       <c r="AA45">
         <v>3713.355</v>
@@ -7285,11 +7288,11 @@
       <c r="X46">
         <v>10</v>
       </c>
-      <c r="Y46" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>351</v>
+      <c r="Y46" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z46">
+        <v>1</v>
       </c>
       <c r="AA46">
         <v>3713.355</v>
@@ -7368,11 +7371,11 @@
       <c r="X47">
         <v>10</v>
       </c>
-      <c r="Y47" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>351</v>
+      <c r="Y47" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z47">
+        <v>1</v>
       </c>
       <c r="AA47">
         <v>3127.0360000000001</v>
@@ -7451,11 +7454,11 @@
       <c r="X48">
         <v>10</v>
       </c>
-      <c r="Y48" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>351</v>
+      <c r="Y48" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z48">
+        <v>1</v>
       </c>
       <c r="AA48">
         <v>2736.1559999999999</v>
@@ -7534,11 +7537,11 @@
       <c r="X49">
         <v>10</v>
       </c>
-      <c r="Y49" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>351</v>
+      <c r="Y49" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
       </c>
       <c r="AA49">
         <v>2931.596</v>
@@ -7617,11 +7620,11 @@
       <c r="X50">
         <v>10</v>
       </c>
-      <c r="Y50" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>351</v>
+      <c r="Y50" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
       </c>
       <c r="AA50">
         <v>50618.892999999996</v>
@@ -7700,11 +7703,11 @@
       <c r="X51">
         <v>10</v>
       </c>
-      <c r="Y51" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>351</v>
+      <c r="Y51" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
       </c>
       <c r="AA51">
         <v>48078.175999999999</v>
@@ -7783,11 +7786,11 @@
       <c r="X52">
         <v>10</v>
       </c>
-      <c r="Y52" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>351</v>
+      <c r="Y52" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
       </c>
       <c r="AA52">
         <v>33615.635000000002</v>
@@ -7866,11 +7869,11 @@
       <c r="X53">
         <v>10</v>
       </c>
-      <c r="Y53" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>351</v>
+      <c r="Y53" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z53">
+        <v>1</v>
       </c>
       <c r="AA53">
         <v>28534.202000000001</v>
@@ -7949,11 +7952,11 @@
       <c r="X54">
         <v>10</v>
       </c>
-      <c r="Y54" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>351</v>
+      <c r="Y54" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
       </c>
       <c r="AA54">
         <v>13680.781999999999</v>
@@ -8032,11 +8035,11 @@
       <c r="X55">
         <v>10</v>
       </c>
-      <c r="Y55" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>351</v>
+      <c r="Y55" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z55">
+        <v>1</v>
       </c>
       <c r="AA55">
         <v>8990.2279999999992</v>
@@ -8115,11 +8118,11 @@
       <c r="X56">
         <v>10</v>
       </c>
-      <c r="Y56" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>351</v>
+      <c r="Y56" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z56">
+        <v>1</v>
       </c>
       <c r="AA56">
         <v>7231.27</v>
@@ -8198,11 +8201,11 @@
       <c r="X57">
         <v>10</v>
       </c>
-      <c r="Y57" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>351</v>
+      <c r="Y57" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
       </c>
       <c r="AA57">
         <v>5472.3130000000001</v>
@@ -8281,11 +8284,11 @@
       <c r="X58">
         <v>10</v>
       </c>
-      <c r="Y58" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>351</v>
+      <c r="Y58" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z58">
+        <v>1</v>
       </c>
       <c r="AA58">
         <v>4885.9930000000004</v>
@@ -8364,11 +8367,11 @@
       <c r="X59">
         <v>10</v>
       </c>
-      <c r="Y59" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>351</v>
+      <c r="Y59" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z59">
+        <v>1</v>
       </c>
       <c r="AA59">
         <v>4690.5540000000001</v>
@@ -8447,11 +8450,11 @@
       <c r="X60">
         <v>10</v>
       </c>
-      <c r="Y60" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>351</v>
+      <c r="Y60" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
       </c>
       <c r="AA60">
         <v>4104.2349999999997</v>
@@ -8530,11 +8533,11 @@
       <c r="X61">
         <v>10</v>
       </c>
-      <c r="Y61" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>351</v>
+      <c r="Y61" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
       </c>
       <c r="AA61">
         <v>3713.355</v>
@@ -8613,11 +8616,11 @@
       <c r="X62">
         <v>10</v>
       </c>
-      <c r="Y62" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>351</v>
+      <c r="Y62" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z62">
+        <v>1</v>
       </c>
       <c r="AA62">
         <v>3713.355</v>
@@ -8696,11 +8699,11 @@
       <c r="X63">
         <v>10</v>
       </c>
-      <c r="Y63" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>351</v>
+      <c r="Y63" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z63">
+        <v>1</v>
       </c>
       <c r="AA63">
         <v>3127.0360000000001</v>
@@ -8779,11 +8782,11 @@
       <c r="X64">
         <v>10</v>
       </c>
-      <c r="Y64" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>351</v>
+      <c r="Y64" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z64">
+        <v>1</v>
       </c>
       <c r="AA64">
         <v>2736.1559999999999</v>
@@ -8862,11 +8865,11 @@
       <c r="X65">
         <v>10</v>
       </c>
-      <c r="Y65" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>351</v>
+      <c r="Y65" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z65">
+        <v>1</v>
       </c>
       <c r="AA65">
         <v>2931.596</v>
@@ -8945,11 +8948,11 @@
       <c r="X66">
         <v>10</v>
       </c>
-      <c r="Y66" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>351</v>
+      <c r="Y66" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z66">
+        <v>1</v>
       </c>
       <c r="AA66">
         <v>54350.648999999998</v>
@@ -9028,11 +9031,11 @@
       <c r="X67">
         <v>10</v>
       </c>
-      <c r="Y67" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>351</v>
+      <c r="Y67" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z67">
+        <v>1</v>
       </c>
       <c r="AA67">
         <v>36623.377</v>
@@ -9111,11 +9114,11 @@
       <c r="X68">
         <v>10</v>
       </c>
-      <c r="Y68" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>351</v>
+      <c r="Y68" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z68">
+        <v>1</v>
       </c>
       <c r="AA68">
         <v>21428.571</v>
@@ -9194,11 +9197,11 @@
       <c r="X69">
         <v>10</v>
       </c>
-      <c r="Y69" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>351</v>
+      <c r="Y69" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z69">
+        <v>1</v>
       </c>
       <c r="AA69">
         <v>18116.883000000002</v>
@@ -9277,11 +9280,11 @@
       <c r="X70">
         <v>10</v>
       </c>
-      <c r="Y70" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>351</v>
+      <c r="Y70" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z70">
+        <v>1</v>
       </c>
       <c r="AA70">
         <v>11883.117</v>
@@ -9360,11 +9363,11 @@
       <c r="X71">
         <v>10</v>
       </c>
-      <c r="Y71" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>351</v>
+      <c r="Y71" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z71">
+        <v>1</v>
       </c>
       <c r="AA71">
         <v>9740.26</v>
@@ -9443,11 +9446,11 @@
       <c r="X72">
         <v>10</v>
       </c>
-      <c r="Y72" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>351</v>
+      <c r="Y72" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z72">
+        <v>1</v>
       </c>
       <c r="AA72">
         <v>9545.4549999999999</v>
@@ -9526,11 +9529,11 @@
       <c r="X73">
         <v>10</v>
       </c>
-      <c r="Y73" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>351</v>
+      <c r="Y73" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z73">
+        <v>1</v>
       </c>
       <c r="AA73">
         <v>9350.6489999999994</v>
@@ -9609,11 +9612,11 @@
       <c r="X74">
         <v>10</v>
       </c>
-      <c r="Y74" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>351</v>
+      <c r="Y74" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z74">
+        <v>1</v>
       </c>
       <c r="AA74">
         <v>7987.0129999999999</v>
@@ -9692,11 +9695,11 @@
       <c r="X75">
         <v>10</v>
       </c>
-      <c r="Y75" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>351</v>
+      <c r="Y75" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z75">
+        <v>1</v>
       </c>
       <c r="AA75">
         <v>6428.5709999999999</v>
@@ -9775,11 +9778,11 @@
       <c r="X76">
         <v>10</v>
       </c>
-      <c r="Y76" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>351</v>
+      <c r="Y76" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z76">
+        <v>1</v>
       </c>
       <c r="AA76">
         <v>6818.1819999999998</v>
@@ -9858,11 +9861,11 @@
       <c r="X77">
         <v>10</v>
       </c>
-      <c r="Y77" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>351</v>
+      <c r="Y77" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z77">
+        <v>1</v>
       </c>
       <c r="AA77">
         <v>5259.74</v>
@@ -9941,11 +9944,11 @@
       <c r="X78">
         <v>10</v>
       </c>
-      <c r="Y78" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z78" t="s">
-        <v>351</v>
+      <c r="Y78" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z78">
+        <v>1</v>
       </c>
       <c r="AA78">
         <v>5649.3509999999997</v>
@@ -10024,11 +10027,11 @@
       <c r="X79">
         <v>10</v>
       </c>
-      <c r="Y79" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>351</v>
+      <c r="Y79" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z79">
+        <v>1</v>
       </c>
       <c r="AA79">
         <v>6623.3770000000004</v>
@@ -10107,11 +10110,11 @@
       <c r="X80">
         <v>10</v>
       </c>
-      <c r="Y80" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>351</v>
+      <c r="Y80" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z80">
+        <v>1</v>
       </c>
       <c r="AA80">
         <v>5064.9350000000004</v>
@@ -10190,11 +10193,11 @@
       <c r="X81">
         <v>10</v>
       </c>
-      <c r="Y81" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>351</v>
+      <c r="Y81" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z81">
+        <v>1</v>
       </c>
       <c r="AA81">
         <v>4480.5190000000002</v>
@@ -10273,11 +10276,11 @@
       <c r="X82">
         <v>10</v>
       </c>
-      <c r="Y82" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>351</v>
+      <c r="Y82" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z82">
+        <v>1</v>
       </c>
       <c r="AA82">
         <v>54350.648999999998</v>
@@ -10356,11 +10359,11 @@
       <c r="X83">
         <v>10</v>
       </c>
-      <c r="Y83" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>351</v>
+      <c r="Y83" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z83">
+        <v>1</v>
       </c>
       <c r="AA83">
         <v>36623.377</v>
@@ -10439,11 +10442,11 @@
       <c r="X84">
         <v>10</v>
       </c>
-      <c r="Y84" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>351</v>
+      <c r="Y84" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z84">
+        <v>1</v>
       </c>
       <c r="AA84">
         <v>21428.571</v>
@@ -10522,11 +10525,11 @@
       <c r="X85">
         <v>10</v>
       </c>
-      <c r="Y85" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z85" t="s">
-        <v>351</v>
+      <c r="Y85" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z85">
+        <v>1</v>
       </c>
       <c r="AA85">
         <v>18116.883000000002</v>
@@ -10605,11 +10608,11 @@
       <c r="X86">
         <v>10</v>
       </c>
-      <c r="Y86" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>351</v>
+      <c r="Y86" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z86">
+        <v>1</v>
       </c>
       <c r="AA86">
         <v>11883.117</v>
@@ -10688,11 +10691,11 @@
       <c r="X87">
         <v>10</v>
       </c>
-      <c r="Y87" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>351</v>
+      <c r="Y87" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z87">
+        <v>1</v>
       </c>
       <c r="AA87">
         <v>9740.26</v>
@@ -10771,11 +10774,11 @@
       <c r="X88">
         <v>10</v>
       </c>
-      <c r="Y88" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z88" t="s">
-        <v>351</v>
+      <c r="Y88" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z88">
+        <v>1</v>
       </c>
       <c r="AA88">
         <v>9545.4549999999999</v>
@@ -10854,11 +10857,11 @@
       <c r="X89">
         <v>10</v>
       </c>
-      <c r="Y89" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z89" t="s">
-        <v>351</v>
+      <c r="Y89" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z89">
+        <v>1</v>
       </c>
       <c r="AA89">
         <v>9350.6489999999994</v>
@@ -10937,11 +10940,11 @@
       <c r="X90">
         <v>10</v>
       </c>
-      <c r="Y90" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z90" t="s">
-        <v>351</v>
+      <c r="Y90" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z90">
+        <v>1</v>
       </c>
       <c r="AA90">
         <v>7987.0129999999999</v>
@@ -11020,11 +11023,11 @@
       <c r="X91">
         <v>10</v>
       </c>
-      <c r="Y91" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z91" t="s">
-        <v>351</v>
+      <c r="Y91" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z91">
+        <v>1</v>
       </c>
       <c r="AA91">
         <v>6428.5709999999999</v>
@@ -11103,11 +11106,11 @@
       <c r="X92">
         <v>10</v>
       </c>
-      <c r="Y92" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z92" t="s">
-        <v>351</v>
+      <c r="Y92" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z92">
+        <v>1</v>
       </c>
       <c r="AA92">
         <v>6818.1819999999998</v>
@@ -11186,11 +11189,11 @@
       <c r="X93">
         <v>10</v>
       </c>
-      <c r="Y93" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z93" t="s">
-        <v>351</v>
+      <c r="Y93" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z93">
+        <v>1</v>
       </c>
       <c r="AA93">
         <v>5259.74</v>
@@ -11269,11 +11272,11 @@
       <c r="X94">
         <v>10</v>
       </c>
-      <c r="Y94" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z94" t="s">
-        <v>351</v>
+      <c r="Y94" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z94">
+        <v>1</v>
       </c>
       <c r="AA94">
         <v>5649.3509999999997</v>
@@ -11352,11 +11355,11 @@
       <c r="X95">
         <v>10</v>
       </c>
-      <c r="Y95" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>351</v>
+      <c r="Y95" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z95">
+        <v>1</v>
       </c>
       <c r="AA95">
         <v>6623.3770000000004</v>
@@ -11435,11 +11438,11 @@
       <c r="X96">
         <v>10</v>
       </c>
-      <c r="Y96" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z96" t="s">
-        <v>351</v>
+      <c r="Y96" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z96">
+        <v>1</v>
       </c>
       <c r="AA96">
         <v>5064.9350000000004</v>
@@ -11518,11 +11521,11 @@
       <c r="X97">
         <v>10</v>
       </c>
-      <c r="Y97" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z97" t="s">
-        <v>351</v>
+      <c r="Y97" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z97">
+        <v>1</v>
       </c>
       <c r="AA97">
         <v>4480.5190000000002</v>
@@ -11604,11 +11607,11 @@
       <c r="X98">
         <v>10</v>
       </c>
-      <c r="Y98" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z98" t="s">
-        <v>351</v>
+      <c r="Y98" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z98">
+        <v>1</v>
       </c>
       <c r="AA98">
         <v>25852.09</v>
@@ -11690,11 +11693,11 @@
       <c r="X99">
         <v>10</v>
       </c>
-      <c r="Y99" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z99" t="s">
-        <v>351</v>
+      <c r="Y99" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z99">
+        <v>1</v>
       </c>
       <c r="AA99">
         <v>15048.232</v>
@@ -11776,11 +11779,11 @@
       <c r="X100">
         <v>10</v>
       </c>
-      <c r="Y100" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z100" t="s">
-        <v>351</v>
+      <c r="Y100" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z100">
+        <v>1</v>
       </c>
       <c r="AA100">
         <v>11382.637000000001</v>
@@ -11862,11 +11865,11 @@
       <c r="X101">
         <v>10</v>
       </c>
-      <c r="Y101" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z101" t="s">
-        <v>351</v>
+      <c r="Y101" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z101">
+        <v>1</v>
       </c>
       <c r="AA101">
         <v>9646.3019999999997</v>
@@ -11948,11 +11951,11 @@
       <c r="X102">
         <v>10</v>
       </c>
-      <c r="Y102" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z102" t="s">
-        <v>351</v>
+      <c r="Y102" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z102">
+        <v>1</v>
       </c>
       <c r="AA102">
         <v>8874.598</v>
@@ -12034,11 +12037,11 @@
       <c r="X103">
         <v>10</v>
       </c>
-      <c r="Y103" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z103" t="s">
-        <v>351</v>
+      <c r="Y103" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z103">
+        <v>1</v>
       </c>
       <c r="AA103">
         <v>7909.9679999999998</v>
@@ -12120,11 +12123,11 @@
       <c r="X104">
         <v>10</v>
       </c>
-      <c r="Y104" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z104" t="s">
-        <v>351</v>
+      <c r="Y104" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z104">
+        <v>1</v>
       </c>
       <c r="AA104">
         <v>7717.0420000000004</v>
@@ -12206,11 +12209,11 @@
       <c r="X105">
         <v>10</v>
       </c>
-      <c r="Y105" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z105" t="s">
-        <v>351</v>
+      <c r="Y105" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z105">
+        <v>1</v>
       </c>
       <c r="AA105">
         <v>10803.859</v>
@@ -12292,11 +12295,11 @@
       <c r="X106">
         <v>10</v>
       </c>
-      <c r="Y106" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z106" t="s">
-        <v>351</v>
+      <c r="Y106" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z106">
+        <v>1</v>
       </c>
       <c r="AA106">
         <v>9646.3019999999997</v>
@@ -12378,11 +12381,11 @@
       <c r="X107">
         <v>10</v>
       </c>
-      <c r="Y107" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z107" t="s">
-        <v>351</v>
+      <c r="Y107" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z107">
+        <v>1</v>
       </c>
       <c r="AA107">
         <v>8488.7459999999992</v>
@@ -12464,11 +12467,11 @@
       <c r="X108">
         <v>10</v>
       </c>
-      <c r="Y108" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z108" t="s">
-        <v>351</v>
+      <c r="Y108" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z108">
+        <v>1</v>
       </c>
       <c r="AA108">
         <v>8681.6720000000005</v>
@@ -12550,11 +12553,11 @@
       <c r="X109">
         <v>10</v>
       </c>
-      <c r="Y109" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z109" t="s">
-        <v>351</v>
+      <c r="Y109" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z109">
+        <v>1</v>
       </c>
       <c r="AA109">
         <v>9067.5239999999994</v>
@@ -12636,11 +12639,11 @@
       <c r="X110">
         <v>10</v>
       </c>
-      <c r="Y110" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z110" t="s">
-        <v>351</v>
+      <c r="Y110" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z110">
+        <v>1</v>
       </c>
       <c r="AA110">
         <v>8681.6720000000005</v>
@@ -12722,11 +12725,11 @@
       <c r="X111">
         <v>10</v>
       </c>
-      <c r="Y111" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z111" t="s">
-        <v>351</v>
+      <c r="Y111" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z111">
+        <v>1</v>
       </c>
       <c r="AA111">
         <v>8102.8940000000002</v>
@@ -12808,11 +12811,11 @@
       <c r="X112">
         <v>10</v>
       </c>
-      <c r="Y112" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z112" t="s">
-        <v>351</v>
+      <c r="Y112" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z112">
+        <v>1</v>
       </c>
       <c r="AA112">
         <v>9839.2279999999992</v>
@@ -12894,11 +12897,11 @@
       <c r="X113">
         <v>10</v>
       </c>
-      <c r="Y113" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z113" t="s">
-        <v>351</v>
+      <c r="Y113" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z113">
+        <v>1</v>
       </c>
       <c r="AA113">
         <v>8681.6720000000005</v>
@@ -12980,11 +12983,11 @@
       <c r="X114">
         <v>10</v>
       </c>
-      <c r="Y114" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z114" t="s">
-        <v>351</v>
+      <c r="Y114" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z114">
+        <v>1</v>
       </c>
       <c r="AA114">
         <v>25852.09</v>
@@ -13066,11 +13069,11 @@
       <c r="X115">
         <v>10</v>
       </c>
-      <c r="Y115" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z115" t="s">
-        <v>351</v>
+      <c r="Y115" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z115">
+        <v>1</v>
       </c>
       <c r="AA115">
         <v>15048.232</v>
@@ -13152,11 +13155,11 @@
       <c r="X116">
         <v>10</v>
       </c>
-      <c r="Y116" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z116" t="s">
-        <v>351</v>
+      <c r="Y116" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z116">
+        <v>1</v>
       </c>
       <c r="AA116">
         <v>11382.637000000001</v>
@@ -13238,11 +13241,11 @@
       <c r="X117">
         <v>10</v>
       </c>
-      <c r="Y117" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z117" t="s">
-        <v>351</v>
+      <c r="Y117" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z117">
+        <v>1</v>
       </c>
       <c r="AA117">
         <v>9646.3019999999997</v>
@@ -13324,11 +13327,11 @@
       <c r="X118">
         <v>10</v>
       </c>
-      <c r="Y118" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z118" t="s">
-        <v>351</v>
+      <c r="Y118" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z118">
+        <v>1</v>
       </c>
       <c r="AA118">
         <v>8874.598</v>
@@ -13410,11 +13413,11 @@
       <c r="X119">
         <v>10</v>
       </c>
-      <c r="Y119" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z119" t="s">
-        <v>351</v>
+      <c r="Y119" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z119">
+        <v>1</v>
       </c>
       <c r="AA119">
         <v>7909.9679999999998</v>
@@ -13496,11 +13499,11 @@
       <c r="X120">
         <v>10</v>
       </c>
-      <c r="Y120" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z120" t="s">
-        <v>351</v>
+      <c r="Y120" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z120">
+        <v>1</v>
       </c>
       <c r="AA120">
         <v>7717.0420000000004</v>
@@ -13582,11 +13585,11 @@
       <c r="X121">
         <v>10</v>
       </c>
-      <c r="Y121" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z121" t="s">
-        <v>351</v>
+      <c r="Y121" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z121">
+        <v>1</v>
       </c>
       <c r="AA121">
         <v>10803.859</v>
@@ -13668,11 +13671,11 @@
       <c r="X122">
         <v>10</v>
       </c>
-      <c r="Y122" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z122" t="s">
-        <v>351</v>
+      <c r="Y122" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z122">
+        <v>1</v>
       </c>
       <c r="AA122">
         <v>9646.3019999999997</v>
@@ -13754,11 +13757,11 @@
       <c r="X123">
         <v>10</v>
       </c>
-      <c r="Y123" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z123" t="s">
-        <v>351</v>
+      <c r="Y123" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z123">
+        <v>1</v>
       </c>
       <c r="AA123">
         <v>8488.7459999999992</v>
@@ -13840,11 +13843,11 @@
       <c r="X124">
         <v>10</v>
       </c>
-      <c r="Y124" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z124" t="s">
-        <v>351</v>
+      <c r="Y124" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z124">
+        <v>1</v>
       </c>
       <c r="AA124">
         <v>8681.6720000000005</v>
@@ -13926,11 +13929,11 @@
       <c r="X125">
         <v>10</v>
       </c>
-      <c r="Y125" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z125" t="s">
-        <v>351</v>
+      <c r="Y125" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z125">
+        <v>1</v>
       </c>
       <c r="AA125">
         <v>9067.5239999999994</v>
@@ -14012,11 +14015,11 @@
       <c r="X126">
         <v>10</v>
       </c>
-      <c r="Y126" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z126" t="s">
-        <v>351</v>
+      <c r="Y126" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z126">
+        <v>1</v>
       </c>
       <c r="AA126">
         <v>8681.6720000000005</v>
@@ -14098,11 +14101,11 @@
       <c r="X127">
         <v>10</v>
       </c>
-      <c r="Y127" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z127" t="s">
-        <v>351</v>
+      <c r="Y127" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z127">
+        <v>1</v>
       </c>
       <c r="AA127">
         <v>8102.8940000000002</v>
@@ -14184,11 +14187,11 @@
       <c r="X128">
         <v>10</v>
       </c>
-      <c r="Y128" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z128" t="s">
-        <v>351</v>
+      <c r="Y128" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z128">
+        <v>1</v>
       </c>
       <c r="AA128">
         <v>9839.2279999999992</v>
@@ -14270,11 +14273,11 @@
       <c r="X129">
         <v>10</v>
       </c>
-      <c r="Y129" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z129" t="s">
-        <v>351</v>
+      <c r="Y129" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z129">
+        <v>1</v>
       </c>
       <c r="AA129">
         <v>8681.6720000000005</v>
@@ -14356,11 +14359,11 @@
       <c r="X130">
         <v>10</v>
       </c>
-      <c r="Y130" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z130" t="s">
-        <v>351</v>
+      <c r="Y130" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z130">
+        <v>1</v>
       </c>
       <c r="AA130">
         <v>27272.726999999999</v>
@@ -14442,11 +14445,11 @@
       <c r="X131">
         <v>10</v>
       </c>
-      <c r="Y131" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z131" t="s">
-        <v>351</v>
+      <c r="Y131" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z131">
+        <v>1</v>
       </c>
       <c r="AA131">
         <v>16753.246999999999</v>
@@ -14528,11 +14531,11 @@
       <c r="X132">
         <v>10</v>
       </c>
-      <c r="Y132" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z132" t="s">
-        <v>351</v>
+      <c r="Y132" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z132">
+        <v>1</v>
       </c>
       <c r="AA132">
         <v>11103.896000000001</v>
@@ -14614,11 +14617,11 @@
       <c r="X133">
         <v>10</v>
       </c>
-      <c r="Y133" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z133" t="s">
-        <v>351</v>
+      <c r="Y133" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z133">
+        <v>1</v>
       </c>
       <c r="AA133">
         <v>8571.4290000000001</v>
@@ -14700,11 +14703,11 @@
       <c r="X134">
         <v>10</v>
       </c>
-      <c r="Y134" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z134" t="s">
-        <v>351</v>
+      <c r="Y134" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z134">
+        <v>1</v>
       </c>
       <c r="AA134">
         <v>7402.5969999999998</v>
@@ -14786,11 +14789,11 @@
       <c r="X135">
         <v>10</v>
       </c>
-      <c r="Y135" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z135" t="s">
-        <v>351</v>
+      <c r="Y135" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z135">
+        <v>1</v>
       </c>
       <c r="AA135">
         <v>6233.7659999999996</v>
@@ -14872,11 +14875,11 @@
       <c r="X136">
         <v>10</v>
       </c>
-      <c r="Y136" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z136" t="s">
-        <v>351</v>
+      <c r="Y136" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z136">
+        <v>1</v>
       </c>
       <c r="AA136">
         <v>6233.7659999999996</v>
@@ -14958,11 +14961,11 @@
       <c r="X137">
         <v>10</v>
       </c>
-      <c r="Y137" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z137" t="s">
-        <v>351</v>
+      <c r="Y137" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z137">
+        <v>1</v>
       </c>
       <c r="AA137">
         <v>8376.6229999999996</v>
@@ -15044,11 +15047,11 @@
       <c r="X138">
         <v>10</v>
       </c>
-      <c r="Y138" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z138" t="s">
-        <v>351</v>
+      <c r="Y138" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z138">
+        <v>1</v>
       </c>
       <c r="AA138">
         <v>7207.7920000000004</v>
@@ -15130,11 +15133,11 @@
       <c r="X139">
         <v>10</v>
       </c>
-      <c r="Y139" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z139" t="s">
-        <v>351</v>
+      <c r="Y139" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z139">
+        <v>1</v>
       </c>
       <c r="AA139">
         <v>6623.3770000000004</v>
@@ -15216,11 +15219,11 @@
       <c r="X140">
         <v>10</v>
       </c>
-      <c r="Y140" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z140" t="s">
-        <v>351</v>
+      <c r="Y140" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z140">
+        <v>1</v>
       </c>
       <c r="AA140">
         <v>6038.9610000000002</v>
@@ -15302,11 +15305,11 @@
       <c r="X141">
         <v>10</v>
       </c>
-      <c r="Y141" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z141" t="s">
-        <v>351</v>
+      <c r="Y141" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z141">
+        <v>1</v>
       </c>
       <c r="AA141">
         <v>7012.9870000000001</v>
@@ -15388,11 +15391,11 @@
       <c r="X142">
         <v>10</v>
       </c>
-      <c r="Y142" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z142" t="s">
-        <v>351</v>
+      <c r="Y142" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z142">
+        <v>1</v>
       </c>
       <c r="AA142">
         <v>6038.9610000000002</v>
@@ -15474,11 +15477,11 @@
       <c r="X143">
         <v>10</v>
       </c>
-      <c r="Y143" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z143" t="s">
-        <v>351</v>
+      <c r="Y143" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z143">
+        <v>1</v>
       </c>
       <c r="AA143">
         <v>6818.1819999999998</v>
@@ -15560,11 +15563,11 @@
       <c r="X144">
         <v>10</v>
       </c>
-      <c r="Y144" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z144" t="s">
-        <v>351</v>
+      <c r="Y144" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z144">
+        <v>1</v>
       </c>
       <c r="AA144">
         <v>5844.1559999999999</v>
@@ -15646,11 +15649,11 @@
       <c r="X145">
         <v>10</v>
       </c>
-      <c r="Y145" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z145" t="s">
-        <v>351</v>
+      <c r="Y145" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z145">
+        <v>1</v>
       </c>
       <c r="AA145">
         <v>13203.883</v>
@@ -15732,11 +15735,11 @@
       <c r="X146">
         <v>10</v>
       </c>
-      <c r="Y146" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z146" t="s">
-        <v>351</v>
+      <c r="Y146" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z146">
+        <v>1</v>
       </c>
       <c r="AA146">
         <v>27272.726999999999</v>
@@ -15818,11 +15821,11 @@
       <c r="X147">
         <v>10</v>
       </c>
-      <c r="Y147" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z147" t="s">
-        <v>351</v>
+      <c r="Y147" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z147">
+        <v>1</v>
       </c>
       <c r="AA147">
         <v>16753.246999999999</v>
@@ -15904,11 +15907,11 @@
       <c r="X148">
         <v>10</v>
       </c>
-      <c r="Y148" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z148" t="s">
-        <v>351</v>
+      <c r="Y148" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z148">
+        <v>1</v>
       </c>
       <c r="AA148">
         <v>11103.896000000001</v>
@@ -15990,11 +15993,11 @@
       <c r="X149">
         <v>10</v>
       </c>
-      <c r="Y149" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z149" t="s">
-        <v>351</v>
+      <c r="Y149" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z149">
+        <v>1</v>
       </c>
       <c r="AA149">
         <v>8571.4290000000001</v>
@@ -16076,11 +16079,11 @@
       <c r="X150">
         <v>10</v>
       </c>
-      <c r="Y150" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z150" t="s">
-        <v>351</v>
+      <c r="Y150" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z150">
+        <v>1</v>
       </c>
       <c r="AA150">
         <v>7402.5969999999998</v>
@@ -16162,11 +16165,11 @@
       <c r="X151">
         <v>10</v>
       </c>
-      <c r="Y151" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z151" t="s">
-        <v>351</v>
+      <c r="Y151" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z151">
+        <v>1</v>
       </c>
       <c r="AA151">
         <v>6233.7659999999996</v>
@@ -16248,11 +16251,11 @@
       <c r="X152">
         <v>10</v>
       </c>
-      <c r="Y152" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z152" t="s">
-        <v>351</v>
+      <c r="Y152" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z152">
+        <v>1</v>
       </c>
       <c r="AA152">
         <v>6233.7659999999996</v>
@@ -16334,11 +16337,11 @@
       <c r="X153">
         <v>10</v>
       </c>
-      <c r="Y153" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z153" t="s">
-        <v>351</v>
+      <c r="Y153" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z153">
+        <v>1</v>
       </c>
       <c r="AA153">
         <v>8376.6229999999996</v>
@@ -16420,11 +16423,11 @@
       <c r="X154">
         <v>10</v>
       </c>
-      <c r="Y154" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z154" t="s">
-        <v>351</v>
+      <c r="Y154" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z154">
+        <v>1</v>
       </c>
       <c r="AA154">
         <v>7207.7920000000004</v>
@@ -16506,11 +16509,11 @@
       <c r="X155">
         <v>10</v>
       </c>
-      <c r="Y155" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z155" t="s">
-        <v>351</v>
+      <c r="Y155" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z155">
+        <v>1</v>
       </c>
       <c r="AA155">
         <v>6623.3770000000004</v>
@@ -16592,11 +16595,11 @@
       <c r="X156">
         <v>10</v>
       </c>
-      <c r="Y156" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z156" t="s">
-        <v>351</v>
+      <c r="Y156" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z156">
+        <v>1</v>
       </c>
       <c r="AA156">
         <v>6038.9610000000002</v>
@@ -16678,11 +16681,11 @@
       <c r="X157">
         <v>10</v>
       </c>
-      <c r="Y157" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z157" t="s">
-        <v>351</v>
+      <c r="Y157" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z157">
+        <v>1</v>
       </c>
       <c r="AA157">
         <v>7012.9870000000001</v>
@@ -16764,11 +16767,11 @@
       <c r="X158">
         <v>10</v>
       </c>
-      <c r="Y158" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z158" t="s">
-        <v>351</v>
+      <c r="Y158" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z158">
+        <v>1</v>
       </c>
       <c r="AA158">
         <v>6038.9610000000002</v>
@@ -16850,11 +16853,11 @@
       <c r="X159">
         <v>10</v>
       </c>
-      <c r="Y159" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z159" t="s">
-        <v>351</v>
+      <c r="Y159" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z159">
+        <v>1</v>
       </c>
       <c r="AA159">
         <v>6818.1819999999998</v>
@@ -16936,11 +16939,11 @@
       <c r="X160">
         <v>10</v>
       </c>
-      <c r="Y160" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z160" t="s">
-        <v>351</v>
+      <c r="Y160" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z160">
+        <v>1</v>
       </c>
       <c r="AA160">
         <v>5844.1559999999999</v>
@@ -17022,11 +17025,11 @@
       <c r="X161">
         <v>10</v>
       </c>
-      <c r="Y161" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z161" t="s">
-        <v>351</v>
+      <c r="Y161" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z161">
+        <v>1</v>
       </c>
       <c r="AA161">
         <v>13203.883</v>
@@ -17108,11 +17111,11 @@
       <c r="X162">
         <v>10</v>
       </c>
-      <c r="Y162" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z162" t="s">
-        <v>351</v>
+      <c r="Y162" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z162">
+        <v>1</v>
       </c>
       <c r="AA162">
         <v>6601.942</v>
@@ -17194,11 +17197,11 @@
       <c r="X163">
         <v>10</v>
       </c>
-      <c r="Y163" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z163" t="s">
-        <v>351</v>
+      <c r="Y163" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z163">
+        <v>1</v>
       </c>
       <c r="AA163">
         <v>7378.6409999999996</v>
@@ -17280,11 +17283,11 @@
       <c r="X164">
         <v>10</v>
       </c>
-      <c r="Y164" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z164" t="s">
-        <v>351</v>
+      <c r="Y164" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z164">
+        <v>1</v>
       </c>
       <c r="AA164">
         <v>6019.4170000000004</v>
@@ -17366,11 +17369,11 @@
       <c r="X165">
         <v>10</v>
       </c>
-      <c r="Y165" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z165" t="s">
-        <v>351</v>
+      <c r="Y165" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z165">
+        <v>1</v>
       </c>
       <c r="AA165">
         <v>4271.8450000000003</v>
@@ -17452,11 +17455,11 @@
       <c r="X166">
         <v>10</v>
       </c>
-      <c r="Y166" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z166" t="s">
-        <v>351</v>
+      <c r="Y166" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z166">
+        <v>1</v>
       </c>
       <c r="AA166">
         <v>2330.0970000000002</v>
@@ -17538,11 +17541,11 @@
       <c r="X167">
         <v>10</v>
       </c>
-      <c r="Y167" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z167" t="s">
-        <v>351</v>
+      <c r="Y167" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z167">
+        <v>1</v>
       </c>
       <c r="AA167">
         <v>2912.6210000000001</v>
@@ -17624,11 +17627,11 @@
       <c r="X168">
         <v>10</v>
       </c>
-      <c r="Y168" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z168" t="s">
-        <v>351</v>
+      <c r="Y168" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z168">
+        <v>1</v>
       </c>
       <c r="AA168">
         <v>3106.7959999999998</v>
@@ -17710,11 +17713,11 @@
       <c r="X169">
         <v>10</v>
       </c>
-      <c r="Y169" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z169" t="s">
-        <v>351</v>
+      <c r="Y169" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z169">
+        <v>1</v>
       </c>
       <c r="AA169">
         <v>2330.0970000000002</v>
@@ -17796,11 +17799,11 @@
       <c r="X170">
         <v>10</v>
       </c>
-      <c r="Y170" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z170" t="s">
-        <v>351</v>
+      <c r="Y170" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z170">
+        <v>1</v>
       </c>
       <c r="AA170">
         <v>1747.5730000000001</v>
@@ -17882,11 +17885,11 @@
       <c r="X171">
         <v>10</v>
       </c>
-      <c r="Y171" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z171" t="s">
-        <v>351</v>
+      <c r="Y171" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z171">
+        <v>1</v>
       </c>
       <c r="AA171">
         <v>1941.748</v>
@@ -17968,11 +17971,11 @@
       <c r="X172">
         <v>10</v>
       </c>
-      <c r="Y172" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z172" t="s">
-        <v>351</v>
+      <c r="Y172" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z172">
+        <v>1</v>
       </c>
       <c r="AA172">
         <v>1941.748</v>
@@ -18054,11 +18057,11 @@
       <c r="X173">
         <v>10</v>
       </c>
-      <c r="Y173" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z173" t="s">
-        <v>351</v>
+      <c r="Y173" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z173">
+        <v>1</v>
       </c>
       <c r="AA173">
         <v>1941.748</v>
@@ -18140,11 +18143,11 @@
       <c r="X174">
         <v>10</v>
       </c>
-      <c r="Y174" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z174" t="s">
-        <v>351</v>
+      <c r="Y174" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z174">
+        <v>1</v>
       </c>
       <c r="AA174">
         <v>1747.5730000000001</v>
@@ -18226,11 +18229,11 @@
       <c r="X175">
         <v>10</v>
       </c>
-      <c r="Y175" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z175" t="s">
-        <v>351</v>
+      <c r="Y175" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z175">
+        <v>1</v>
       </c>
       <c r="AA175">
         <v>2330.0970000000002</v>
@@ -18312,11 +18315,11 @@
       <c r="X176">
         <v>10</v>
       </c>
-      <c r="Y176" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z176" t="s">
-        <v>351</v>
+      <c r="Y176" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z176">
+        <v>1</v>
       </c>
       <c r="AA176">
         <v>2524.2719999999999</v>
@@ -18398,11 +18401,11 @@
       <c r="X177">
         <v>10</v>
       </c>
-      <c r="Y177" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z177" t="s">
-        <v>351</v>
+      <c r="Y177" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z177">
+        <v>1</v>
       </c>
       <c r="AA177">
         <v>25273.312000000002</v>
@@ -18484,11 +18487,11 @@
       <c r="X178">
         <v>10</v>
       </c>
-      <c r="Y178" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z178" t="s">
-        <v>351</v>
+      <c r="Y178" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z178">
+        <v>1</v>
       </c>
       <c r="AA178">
         <v>6601.942</v>
@@ -18570,11 +18573,11 @@
       <c r="X179">
         <v>10</v>
       </c>
-      <c r="Y179" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z179" t="s">
-        <v>351</v>
+      <c r="Y179" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z179">
+        <v>1</v>
       </c>
       <c r="AA179">
         <v>7378.6409999999996</v>
@@ -18656,11 +18659,11 @@
       <c r="X180">
         <v>10</v>
       </c>
-      <c r="Y180" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z180" t="s">
-        <v>351</v>
+      <c r="Y180" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z180">
+        <v>1</v>
       </c>
       <c r="AA180">
         <v>6019.4170000000004</v>
@@ -18742,11 +18745,11 @@
       <c r="X181">
         <v>10</v>
       </c>
-      <c r="Y181" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z181" t="s">
-        <v>351</v>
+      <c r="Y181" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z181">
+        <v>1</v>
       </c>
       <c r="AA181">
         <v>4271.8450000000003</v>
@@ -18828,11 +18831,11 @@
       <c r="X182">
         <v>10</v>
       </c>
-      <c r="Y182" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z182" t="s">
-        <v>351</v>
+      <c r="Y182" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z182">
+        <v>1</v>
       </c>
       <c r="AA182">
         <v>2330.0970000000002</v>
@@ -18914,11 +18917,11 @@
       <c r="X183">
         <v>10</v>
       </c>
-      <c r="Y183" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z183" t="s">
-        <v>351</v>
+      <c r="Y183" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z183">
+        <v>1</v>
       </c>
       <c r="AA183">
         <v>2912.6210000000001</v>
@@ -19000,11 +19003,11 @@
       <c r="X184">
         <v>10</v>
       </c>
-      <c r="Y184" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z184" t="s">
-        <v>351</v>
+      <c r="Y184" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z184">
+        <v>1</v>
       </c>
       <c r="AA184">
         <v>3106.7959999999998</v>
@@ -19086,11 +19089,11 @@
       <c r="X185">
         <v>10</v>
       </c>
-      <c r="Y185" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z185" t="s">
-        <v>351</v>
+      <c r="Y185" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z185">
+        <v>1</v>
       </c>
       <c r="AA185">
         <v>2330.0970000000002</v>
@@ -19172,11 +19175,11 @@
       <c r="X186">
         <v>10</v>
       </c>
-      <c r="Y186" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z186" t="s">
-        <v>351</v>
+      <c r="Y186" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z186">
+        <v>1</v>
       </c>
       <c r="AA186">
         <v>1747.5730000000001</v>
@@ -19258,11 +19261,11 @@
       <c r="X187">
         <v>10</v>
       </c>
-      <c r="Y187" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z187" t="s">
-        <v>351</v>
+      <c r="Y187" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z187">
+        <v>1</v>
       </c>
       <c r="AA187">
         <v>1941.748</v>
@@ -19344,11 +19347,11 @@
       <c r="X188">
         <v>10</v>
       </c>
-      <c r="Y188" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z188" t="s">
-        <v>351</v>
+      <c r="Y188" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z188">
+        <v>1</v>
       </c>
       <c r="AA188">
         <v>1941.748</v>
@@ -19430,11 +19433,11 @@
       <c r="X189">
         <v>10</v>
       </c>
-      <c r="Y189" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z189" t="s">
-        <v>351</v>
+      <c r="Y189" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z189">
+        <v>1</v>
       </c>
       <c r="AA189">
         <v>1941.748</v>
@@ -19516,11 +19519,11 @@
       <c r="X190">
         <v>10</v>
       </c>
-      <c r="Y190" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z190" t="s">
-        <v>351</v>
+      <c r="Y190" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z190">
+        <v>1</v>
       </c>
       <c r="AA190">
         <v>1747.5730000000001</v>
@@ -19602,11 +19605,11 @@
       <c r="X191">
         <v>10</v>
       </c>
-      <c r="Y191" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z191" t="s">
-        <v>351</v>
+      <c r="Y191" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z191">
+        <v>1</v>
       </c>
       <c r="AA191">
         <v>2330.0970000000002</v>
@@ -19688,11 +19691,11 @@
       <c r="X192">
         <v>10</v>
       </c>
-      <c r="Y192" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z192" t="s">
-        <v>351</v>
+      <c r="Y192" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z192">
+        <v>1</v>
       </c>
       <c r="AA192">
         <v>2524.2719999999999</v>
@@ -19774,11 +19777,11 @@
       <c r="X193">
         <v>10</v>
       </c>
-      <c r="Y193" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z193" t="s">
-        <v>351</v>
+      <c r="Y193" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z193">
+        <v>1</v>
       </c>
       <c r="AA193">
         <v>25273.312000000002</v>
@@ -19857,11 +19860,11 @@
       <c r="X194">
         <v>10</v>
       </c>
-      <c r="Y194" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z194" t="s">
-        <v>351</v>
+      <c r="Y194" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z194">
+        <v>1</v>
       </c>
       <c r="AA194">
         <v>16784.565999999999</v>
@@ -19940,11 +19943,11 @@
       <c r="X195">
         <v>10</v>
       </c>
-      <c r="Y195" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z195" t="s">
-        <v>351</v>
+      <c r="Y195" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z195">
+        <v>1</v>
       </c>
       <c r="AA195">
         <v>12540.192999999999</v>
@@ -20023,11 +20026,11 @@
       <c r="X196">
         <v>10</v>
       </c>
-      <c r="Y196" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z196" t="s">
-        <v>351</v>
+      <c r="Y196" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z196">
+        <v>1</v>
       </c>
       <c r="AA196">
         <v>11382.637000000001</v>
@@ -20106,11 +20109,11 @@
       <c r="X197">
         <v>10</v>
       </c>
-      <c r="Y197" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z197" t="s">
-        <v>351</v>
+      <c r="Y197" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z197">
+        <v>1</v>
       </c>
       <c r="AA197">
         <v>5980.7070000000003</v>
@@ -20189,11 +20192,11 @@
       <c r="X198">
         <v>10</v>
       </c>
-      <c r="Y198" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z198" t="s">
-        <v>351</v>
+      <c r="Y198" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z198">
+        <v>1</v>
       </c>
       <c r="AA198">
         <v>4051.4470000000001</v>
@@ -20272,11 +20275,11 @@
       <c r="X199">
         <v>10</v>
       </c>
-      <c r="Y199" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z199" t="s">
-        <v>351</v>
+      <c r="Y199" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z199">
+        <v>1</v>
       </c>
       <c r="AA199">
         <v>4051.4470000000001</v>
@@ -20355,11 +20358,11 @@
       <c r="X200">
         <v>10</v>
       </c>
-      <c r="Y200" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z200" t="s">
-        <v>351</v>
+      <c r="Y200" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z200">
+        <v>1</v>
       </c>
       <c r="AA200">
         <v>4051.4470000000001</v>
@@ -20438,11 +20441,11 @@
       <c r="X201">
         <v>10</v>
       </c>
-      <c r="Y201" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z201" t="s">
-        <v>351</v>
+      <c r="Y201" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z201">
+        <v>1</v>
       </c>
       <c r="AA201">
         <v>5594.8549999999996</v>
@@ -20521,11 +20524,11 @@
       <c r="X202">
         <v>10</v>
       </c>
-      <c r="Y202" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z202" t="s">
-        <v>351</v>
+      <c r="Y202" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z202">
+        <v>1</v>
       </c>
       <c r="AA202">
         <v>2508.0390000000002</v>
@@ -20604,11 +20607,11 @@
       <c r="X203">
         <v>10</v>
       </c>
-      <c r="Y203" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z203" t="s">
-        <v>351</v>
+      <c r="Y203" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z203">
+        <v>1</v>
       </c>
       <c r="AA203">
         <v>2700.9650000000001</v>
@@ -20687,11 +20690,11 @@
       <c r="X204">
         <v>10</v>
       </c>
-      <c r="Y204" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z204" t="s">
-        <v>351</v>
+      <c r="Y204" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z204">
+        <v>1</v>
       </c>
       <c r="AA204">
         <v>2700.9650000000001</v>
@@ -20770,11 +20773,11 @@
       <c r="X205">
         <v>10</v>
       </c>
-      <c r="Y205" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z205" t="s">
-        <v>351</v>
+      <c r="Y205" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z205">
+        <v>1</v>
       </c>
       <c r="AA205">
         <v>2893.8910000000001</v>
@@ -20853,11 +20856,11 @@
       <c r="X206">
         <v>10</v>
       </c>
-      <c r="Y206" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z206" t="s">
-        <v>351</v>
+      <c r="Y206" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z206">
+        <v>1</v>
       </c>
       <c r="AA206">
         <v>2508.0390000000002</v>
@@ -20936,11 +20939,11 @@
       <c r="X207">
         <v>10</v>
       </c>
-      <c r="Y207" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z207" t="s">
-        <v>351</v>
+      <c r="Y207" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z207">
+        <v>1</v>
       </c>
       <c r="AA207">
         <v>3086.817</v>
@@ -21019,11 +21022,11 @@
       <c r="X208">
         <v>10</v>
       </c>
-      <c r="Y208" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z208" t="s">
-        <v>351</v>
+      <c r="Y208" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z208">
+        <v>1</v>
       </c>
       <c r="AA208">
         <v>2893.8910000000001</v>
@@ -21102,11 +21105,11 @@
       <c r="X209">
         <v>10</v>
       </c>
-      <c r="Y209" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z209" t="s">
-        <v>351</v>
+      <c r="Y209" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z209">
+        <v>1</v>
       </c>
       <c r="AA209">
         <v>2642.9380000000001</v>
@@ -21185,11 +21188,11 @@
       <c r="X210">
         <v>10</v>
       </c>
-      <c r="Y210" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z210" t="s">
-        <v>351</v>
+      <c r="Y210" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z210">
+        <v>1</v>
       </c>
       <c r="AA210">
         <v>16784.565999999999</v>
@@ -21268,11 +21271,11 @@
       <c r="X211">
         <v>10</v>
       </c>
-      <c r="Y211" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z211" t="s">
-        <v>351</v>
+      <c r="Y211" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z211">
+        <v>1</v>
       </c>
       <c r="AA211">
         <v>12540.192999999999</v>
@@ -21351,11 +21354,11 @@
       <c r="X212">
         <v>10</v>
       </c>
-      <c r="Y212" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z212" t="s">
-        <v>351</v>
+      <c r="Y212" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z212">
+        <v>1</v>
       </c>
       <c r="AA212">
         <v>11382.637000000001</v>
@@ -21434,11 +21437,11 @@
       <c r="X213">
         <v>10</v>
       </c>
-      <c r="Y213" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z213" t="s">
-        <v>351</v>
+      <c r="Y213" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z213">
+        <v>1</v>
       </c>
       <c r="AA213">
         <v>5980.7070000000003</v>
@@ -21517,11 +21520,11 @@
       <c r="X214">
         <v>10</v>
       </c>
-      <c r="Y214" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z214" t="s">
-        <v>351</v>
+      <c r="Y214" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z214">
+        <v>1</v>
       </c>
       <c r="AA214">
         <v>4051.4470000000001</v>
@@ -21600,11 +21603,11 @@
       <c r="X215">
         <v>10</v>
       </c>
-      <c r="Y215" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z215" t="s">
-        <v>351</v>
+      <c r="Y215" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z215">
+        <v>1</v>
       </c>
       <c r="AA215">
         <v>4051.4470000000001</v>
@@ -21683,11 +21686,11 @@
       <c r="X216">
         <v>10</v>
       </c>
-      <c r="Y216" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z216" t="s">
-        <v>351</v>
+      <c r="Y216" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z216">
+        <v>1</v>
       </c>
       <c r="AA216">
         <v>4051.4470000000001</v>
@@ -21766,11 +21769,11 @@
       <c r="X217">
         <v>10</v>
       </c>
-      <c r="Y217" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z217" t="s">
-        <v>351</v>
+      <c r="Y217" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z217">
+        <v>1</v>
       </c>
       <c r="AA217">
         <v>5594.8549999999996</v>
@@ -21849,11 +21852,11 @@
       <c r="X218">
         <v>10</v>
       </c>
-      <c r="Y218" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z218" t="s">
-        <v>351</v>
+      <c r="Y218" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z218">
+        <v>1</v>
       </c>
       <c r="AA218">
         <v>2508.0390000000002</v>
@@ -21932,11 +21935,11 @@
       <c r="X219">
         <v>10</v>
       </c>
-      <c r="Y219" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z219" t="s">
-        <v>351</v>
+      <c r="Y219" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z219">
+        <v>1</v>
       </c>
       <c r="AA219">
         <v>2700.9650000000001</v>
@@ -22015,11 +22018,11 @@
       <c r="X220">
         <v>10</v>
       </c>
-      <c r="Y220" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z220" t="s">
-        <v>351</v>
+      <c r="Y220" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z220">
+        <v>1</v>
       </c>
       <c r="AA220">
         <v>2700.9650000000001</v>
@@ -22098,11 +22101,11 @@
       <c r="X221">
         <v>10</v>
       </c>
-      <c r="Y221" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z221" t="s">
-        <v>351</v>
+      <c r="Y221" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z221">
+        <v>1</v>
       </c>
       <c r="AA221">
         <v>2893.8910000000001</v>
@@ -22181,11 +22184,11 @@
       <c r="X222">
         <v>10</v>
       </c>
-      <c r="Y222" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z222" t="s">
-        <v>351</v>
+      <c r="Y222" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z222">
+        <v>1</v>
       </c>
       <c r="AA222">
         <v>2508.0390000000002</v>
@@ -22264,11 +22267,11 @@
       <c r="X223">
         <v>10</v>
       </c>
-      <c r="Y223" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z223" t="s">
-        <v>351</v>
+      <c r="Y223" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z223">
+        <v>1</v>
       </c>
       <c r="AA223">
         <v>3086.817</v>
@@ -22347,11 +22350,11 @@
       <c r="X224">
         <v>10</v>
       </c>
-      <c r="Y224" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z224" t="s">
-        <v>351</v>
+      <c r="Y224" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z224">
+        <v>1</v>
       </c>
       <c r="AA224">
         <v>2893.8910000000001</v>
@@ -22430,11 +22433,11 @@
       <c r="X225">
         <v>10</v>
       </c>
-      <c r="Y225" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z225" t="s">
-        <v>351</v>
+      <c r="Y225" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z225">
+        <v>1</v>
       </c>
       <c r="AA225">
         <v>2642.9380000000001</v>
@@ -22517,7 +22520,7 @@
         <v>16</v>
       </c>
       <c r="Y226" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z226">
         <v>1</v>
@@ -22603,7 +22606,7 @@
         <v>16</v>
       </c>
       <c r="Y227" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z227">
         <v>1</v>
@@ -22689,7 +22692,7 @@
         <v>16</v>
       </c>
       <c r="Y228" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z228">
         <v>1</v>
@@ -22775,7 +22778,7 @@
         <v>16</v>
       </c>
       <c r="Y229" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z229">
         <v>1</v>
@@ -22861,7 +22864,7 @@
         <v>16</v>
       </c>
       <c r="Y230" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z230">
         <v>1</v>
@@ -22947,7 +22950,7 @@
         <v>16</v>
       </c>
       <c r="Y231" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z231">
         <v>1</v>
@@ -23033,7 +23036,7 @@
         <v>16</v>
       </c>
       <c r="Y232" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z232">
         <v>1</v>
@@ -23119,7 +23122,7 @@
         <v>16</v>
       </c>
       <c r="Y233" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z233">
         <v>1</v>
@@ -23205,7 +23208,7 @@
         <v>16</v>
       </c>
       <c r="Y234" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z234">
         <v>1</v>
@@ -23291,7 +23294,7 @@
         <v>16</v>
       </c>
       <c r="Y235" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z235">
         <v>1</v>
@@ -23377,7 +23380,7 @@
         <v>16</v>
       </c>
       <c r="Y236" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z236">
         <v>1</v>
@@ -23463,7 +23466,7 @@
         <v>16</v>
       </c>
       <c r="Y237" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z237">
         <v>1</v>
@@ -23549,7 +23552,7 @@
         <v>16</v>
       </c>
       <c r="Y238" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z238">
         <v>1</v>
@@ -23635,7 +23638,7 @@
         <v>16</v>
       </c>
       <c r="Y239" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z239">
         <v>1</v>
@@ -23721,7 +23724,7 @@
         <v>8</v>
       </c>
       <c r="Y240" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z240">
         <v>1</v>
@@ -23807,7 +23810,7 @@
         <v>8</v>
       </c>
       <c r="Y241" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z241">
         <v>1</v>
@@ -23893,7 +23896,7 @@
         <v>8</v>
       </c>
       <c r="Y242" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z242">
         <v>1</v>
@@ -23979,7 +23982,7 @@
         <v>8</v>
       </c>
       <c r="Y243" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z243">
         <v>1</v>
@@ -24065,7 +24068,7 @@
         <v>8</v>
       </c>
       <c r="Y244" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z244">
         <v>1</v>
@@ -24151,7 +24154,7 @@
         <v>8</v>
       </c>
       <c r="Y245" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z245">
         <v>1</v>
@@ -24237,7 +24240,7 @@
         <v>8</v>
       </c>
       <c r="Y246" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z246">
         <v>1</v>
@@ -24323,7 +24326,7 @@
         <v>8</v>
       </c>
       <c r="Y247" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z247">
         <v>1</v>
@@ -24409,7 +24412,7 @@
         <v>8</v>
       </c>
       <c r="Y248" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z248">
         <v>1</v>
@@ -24495,7 +24498,7 @@
         <v>8</v>
       </c>
       <c r="Y249" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z249">
         <v>1</v>
@@ -24581,7 +24584,7 @@
         <v>8</v>
       </c>
       <c r="Y250" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z250">
         <v>1</v>
@@ -24667,7 +24670,7 @@
         <v>8</v>
       </c>
       <c r="Y251" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z251">
         <v>1</v>
@@ -24753,7 +24756,7 @@
         <v>8</v>
       </c>
       <c r="Y252" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z252">
         <v>1</v>
@@ -24839,7 +24842,7 @@
         <v>16</v>
       </c>
       <c r="Y253" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z253">
         <v>1</v>
@@ -24925,7 +24928,7 @@
         <v>16</v>
       </c>
       <c r="Y254" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z254">
         <v>1</v>
@@ -25011,7 +25014,7 @@
         <v>16</v>
       </c>
       <c r="Y255" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z255">
         <v>1</v>
@@ -25097,7 +25100,7 @@
         <v>16</v>
       </c>
       <c r="Y256" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z256">
         <v>1</v>
@@ -25183,7 +25186,7 @@
         <v>16</v>
       </c>
       <c r="Y257" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z257">
         <v>1</v>
@@ -25269,7 +25272,7 @@
         <v>16</v>
       </c>
       <c r="Y258" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z258">
         <v>1</v>
@@ -25355,7 +25358,7 @@
         <v>16</v>
       </c>
       <c r="Y259" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z259">
         <v>1</v>
@@ -25441,7 +25444,7 @@
         <v>16</v>
       </c>
       <c r="Y260" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z260">
         <v>1</v>
@@ -25527,7 +25530,7 @@
         <v>16</v>
       </c>
       <c r="Y261" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z261">
         <v>1</v>
@@ -25613,7 +25616,7 @@
         <v>16</v>
       </c>
       <c r="Y262" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z262">
         <v>1</v>
@@ -25699,7 +25702,7 @@
         <v>16</v>
       </c>
       <c r="Y263" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z263">
         <v>1</v>
@@ -25785,7 +25788,7 @@
         <v>16</v>
       </c>
       <c r="Y264" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z264">
         <v>1</v>
@@ -25871,7 +25874,7 @@
         <v>16</v>
       </c>
       <c r="Y265" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z265">
         <v>1</v>
@@ -25957,7 +25960,7 @@
         <v>8</v>
       </c>
       <c r="Y266" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z266">
         <v>1</v>
@@ -26043,7 +26046,7 @@
         <v>8</v>
       </c>
       <c r="Y267" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z267">
         <v>1</v>
@@ -26129,7 +26132,7 @@
         <v>8</v>
       </c>
       <c r="Y268" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z268">
         <v>1</v>
@@ -26215,7 +26218,7 @@
         <v>8</v>
       </c>
       <c r="Y269" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z269">
         <v>1</v>
@@ -26301,7 +26304,7 @@
         <v>8</v>
       </c>
       <c r="Y270" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z270">
         <v>1</v>
@@ -26387,7 +26390,7 @@
         <v>8</v>
       </c>
       <c r="Y271" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z271">
         <v>1</v>
@@ -26473,7 +26476,7 @@
         <v>8</v>
       </c>
       <c r="Y272" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z272">
         <v>1</v>
@@ -26559,7 +26562,7 @@
         <v>8</v>
       </c>
       <c r="Y273" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z273">
         <v>1</v>
@@ -26645,7 +26648,7 @@
         <v>8</v>
       </c>
       <c r="Y274" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z274">
         <v>1</v>
@@ -26731,7 +26734,7 @@
         <v>8</v>
       </c>
       <c r="Y275" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z275">
         <v>1</v>
@@ -26817,7 +26820,7 @@
         <v>16</v>
       </c>
       <c r="Y276" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z276">
         <v>1</v>
@@ -26903,7 +26906,7 @@
         <v>16</v>
       </c>
       <c r="Y277" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z277">
         <v>1</v>
@@ -26989,7 +26992,7 @@
         <v>16</v>
       </c>
       <c r="Y278" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z278">
         <v>1</v>
@@ -27075,7 +27078,7 @@
         <v>16</v>
       </c>
       <c r="Y279" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z279">
         <v>1</v>
@@ -27161,7 +27164,7 @@
         <v>16</v>
       </c>
       <c r="Y280" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z280">
         <v>1</v>
@@ -27247,7 +27250,7 @@
         <v>16</v>
       </c>
       <c r="Y281" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z281">
         <v>1</v>
@@ -27333,7 +27336,7 @@
         <v>16</v>
       </c>
       <c r="Y282" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z282">
         <v>1</v>
@@ -27419,7 +27422,7 @@
         <v>16</v>
       </c>
       <c r="Y283" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z283">
         <v>1</v>
@@ -27505,7 +27508,7 @@
         <v>16</v>
       </c>
       <c r="Y284" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z284">
         <v>1</v>
@@ -27591,7 +27594,7 @@
         <v>16</v>
       </c>
       <c r="Y285" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z285">
         <v>1</v>
@@ -27677,7 +27680,7 @@
         <v>8</v>
       </c>
       <c r="Y286" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z286">
         <v>1</v>
@@ -27763,7 +27766,7 @@
         <v>8</v>
       </c>
       <c r="Y287" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z287">
         <v>1</v>
@@ -27849,7 +27852,7 @@
         <v>8</v>
       </c>
       <c r="Y288" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z288">
         <v>1</v>
@@ -27935,7 +27938,7 @@
         <v>8</v>
       </c>
       <c r="Y289" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z289">
         <v>1</v>
@@ -28021,7 +28024,7 @@
         <v>8</v>
       </c>
       <c r="Y290" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z290">
         <v>1</v>
@@ -28107,7 +28110,7 @@
         <v>8</v>
       </c>
       <c r="Y291" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z291">
         <v>1</v>
@@ -28193,7 +28196,7 @@
         <v>8</v>
       </c>
       <c r="Y292" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z292">
         <v>1</v>
@@ -28279,7 +28282,7 @@
         <v>8</v>
       </c>
       <c r="Y293" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z293">
         <v>1</v>
@@ -28365,7 +28368,7 @@
         <v>16</v>
       </c>
       <c r="Y294" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z294">
         <v>1</v>
@@ -28451,7 +28454,7 @@
         <v>16</v>
       </c>
       <c r="Y295" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z295">
         <v>1</v>
@@ -28537,7 +28540,7 @@
         <v>16</v>
       </c>
       <c r="Y296" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z296">
         <v>1</v>
@@ -28623,7 +28626,7 @@
         <v>16</v>
       </c>
       <c r="Y297" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z297">
         <v>1</v>
@@ -28709,7 +28712,7 @@
         <v>16</v>
       </c>
       <c r="Y298" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z298">
         <v>1</v>
@@ -28795,7 +28798,7 @@
         <v>16</v>
       </c>
       <c r="Y299" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z299">
         <v>1</v>
@@ -28881,7 +28884,7 @@
         <v>16</v>
       </c>
       <c r="Y300" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z300">
         <v>1</v>
@@ -28967,7 +28970,7 @@
         <v>16</v>
       </c>
       <c r="Y301" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z301">
         <v>1</v>
@@ -29053,7 +29056,7 @@
         <v>16</v>
       </c>
       <c r="Y302" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z302">
         <v>1</v>
@@ -29139,7 +29142,7 @@
         <v>8</v>
       </c>
       <c r="Y303" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z303">
         <v>1</v>
@@ -29225,7 +29228,7 @@
         <v>8</v>
       </c>
       <c r="Y304" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z304">
         <v>1</v>
@@ -29311,7 +29314,7 @@
         <v>8</v>
       </c>
       <c r="Y305" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z305">
         <v>1</v>
@@ -29397,7 +29400,7 @@
         <v>8</v>
       </c>
       <c r="Y306" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z306">
         <v>1</v>
@@ -29483,7 +29486,7 @@
         <v>8</v>
       </c>
       <c r="Y307" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z307">
         <v>1</v>
@@ -29569,7 +29572,7 @@
         <v>8</v>
       </c>
       <c r="Y308" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z308">
         <v>1</v>
@@ -29655,7 +29658,7 @@
         <v>16</v>
       </c>
       <c r="Y309" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z309">
         <v>1</v>
@@ -29741,7 +29744,7 @@
         <v>16</v>
       </c>
       <c r="Y310" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z310">
         <v>1</v>
@@ -29827,7 +29830,7 @@
         <v>16</v>
       </c>
       <c r="Y311" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z311">
         <v>1</v>
@@ -29913,7 +29916,7 @@
         <v>16</v>
       </c>
       <c r="Y312" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z312">
         <v>1</v>
@@ -29999,7 +30002,7 @@
         <v>16</v>
       </c>
       <c r="Y313" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z313">
         <v>1</v>
@@ -30085,7 +30088,7 @@
         <v>16</v>
       </c>
       <c r="Y314" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z314">
         <v>1</v>
@@ -30171,7 +30174,7 @@
         <v>16</v>
       </c>
       <c r="Y315" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z315">
         <v>1</v>
@@ -30257,7 +30260,7 @@
         <v>16</v>
       </c>
       <c r="Y316" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z316">
         <v>1</v>
@@ -30343,7 +30346,7 @@
         <v>16</v>
       </c>
       <c r="Y317" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z317">
         <v>1</v>
@@ -30429,7 +30432,7 @@
         <v>16</v>
       </c>
       <c r="Y318" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z318">
         <v>1</v>
@@ -30515,7 +30518,7 @@
         <v>16</v>
       </c>
       <c r="Y319" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z319">
         <v>1</v>
@@ -30601,7 +30604,7 @@
         <v>16</v>
       </c>
       <c r="Y320" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z320">
         <v>1</v>
@@ -30687,7 +30690,7 @@
         <v>16</v>
       </c>
       <c r="Y321" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z321">
         <v>1</v>
@@ -30773,7 +30776,7 @@
         <v>8</v>
       </c>
       <c r="Y322" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z322">
         <v>1</v>
@@ -30859,7 +30862,7 @@
         <v>8</v>
       </c>
       <c r="Y323" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z323">
         <v>1</v>
@@ -30945,7 +30948,7 @@
         <v>8</v>
       </c>
       <c r="Y324" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z324">
         <v>1</v>
@@ -31031,7 +31034,7 @@
         <v>8</v>
       </c>
       <c r="Y325" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z325">
         <v>1</v>
@@ -31117,7 +31120,7 @@
         <v>8</v>
       </c>
       <c r="Y326" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z326">
         <v>1</v>
@@ -31203,7 +31206,7 @@
         <v>8</v>
       </c>
       <c r="Y327" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z327">
         <v>1</v>
@@ -31289,7 +31292,7 @@
         <v>8</v>
       </c>
       <c r="Y328" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z328">
         <v>1</v>
@@ -31375,7 +31378,7 @@
         <v>8</v>
       </c>
       <c r="Y329" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z329">
         <v>1</v>
@@ -31461,7 +31464,7 @@
         <v>8</v>
       </c>
       <c r="Y330" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z330">
         <v>1</v>
@@ -31547,7 +31550,7 @@
         <v>8</v>
       </c>
       <c r="Y331" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z331">
         <v>1</v>
@@ -31633,7 +31636,7 @@
         <v>8</v>
       </c>
       <c r="Y332" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z332">
         <v>1</v>
@@ -31719,7 +31722,7 @@
         <v>16</v>
       </c>
       <c r="Y333" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z333">
         <v>1</v>
@@ -31805,7 +31808,7 @@
         <v>16</v>
       </c>
       <c r="Y334" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z334">
         <v>1</v>
@@ -31891,7 +31894,7 @@
         <v>16</v>
       </c>
       <c r="Y335" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z335">
         <v>1</v>
@@ -31977,7 +31980,7 @@
         <v>16</v>
       </c>
       <c r="Y336" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z336">
         <v>1</v>
@@ -32063,7 +32066,7 @@
         <v>16</v>
       </c>
       <c r="Y337" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z337">
         <v>1</v>
@@ -32149,7 +32152,7 @@
         <v>16</v>
       </c>
       <c r="Y338" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z338">
         <v>1</v>
@@ -32235,7 +32238,7 @@
         <v>16</v>
       </c>
       <c r="Y339" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z339">
         <v>1</v>
@@ -32321,7 +32324,7 @@
         <v>16</v>
       </c>
       <c r="Y340" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z340">
         <v>1</v>
@@ -32407,7 +32410,7 @@
         <v>16</v>
       </c>
       <c r="Y341" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z341">
         <v>1</v>
@@ -32493,7 +32496,7 @@
         <v>16</v>
       </c>
       <c r="Y342" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z342">
         <v>1</v>
@@ -32579,7 +32582,7 @@
         <v>16</v>
       </c>
       <c r="Y343" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z343">
         <v>1</v>
@@ -32665,7 +32668,7 @@
         <v>16</v>
       </c>
       <c r="Y344" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z344">
         <v>1</v>
@@ -32751,7 +32754,7 @@
         <v>16</v>
       </c>
       <c r="Y345" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z345">
         <v>1</v>
@@ -32837,7 +32840,7 @@
         <v>8</v>
       </c>
       <c r="Y346" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z346">
         <v>1</v>
@@ -32923,7 +32926,7 @@
         <v>8</v>
       </c>
       <c r="Y347" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z347">
         <v>1</v>
@@ -33009,7 +33012,7 @@
         <v>8</v>
       </c>
       <c r="Y348" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z348">
         <v>1</v>
@@ -33095,7 +33098,7 @@
         <v>8</v>
       </c>
       <c r="Y349" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z349">
         <v>1</v>
@@ -33181,7 +33184,7 @@
         <v>8</v>
       </c>
       <c r="Y350" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z350">
         <v>1</v>
@@ -33267,7 +33270,7 @@
         <v>8</v>
       </c>
       <c r="Y351" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z351">
         <v>1</v>
@@ -33353,7 +33356,7 @@
         <v>8</v>
       </c>
       <c r="Y352" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z352">
         <v>1</v>
@@ -33439,7 +33442,7 @@
         <v>8</v>
       </c>
       <c r="Y353" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z353">
         <v>1</v>
@@ -33525,7 +33528,7 @@
         <v>8</v>
       </c>
       <c r="Y354" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z354">
         <v>1</v>
@@ -33611,7 +33614,7 @@
         <v>8</v>
       </c>
       <c r="Y355" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z355">
         <v>1</v>
@@ -33697,7 +33700,7 @@
         <v>8</v>
       </c>
       <c r="Y356" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z356">
         <v>1</v>
@@ -33783,7 +33786,7 @@
         <v>16</v>
       </c>
       <c r="Y357" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z357">
         <v>1</v>
@@ -33869,7 +33872,7 @@
         <v>16</v>
       </c>
       <c r="Y358" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z358">
         <v>1</v>
@@ -33955,7 +33958,7 @@
         <v>16</v>
       </c>
       <c r="Y359" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z359">
         <v>1</v>
@@ -34041,7 +34044,7 @@
         <v>16</v>
       </c>
       <c r="Y360" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z360">
         <v>1</v>
@@ -34127,7 +34130,7 @@
         <v>16</v>
       </c>
       <c r="Y361" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z361">
         <v>1</v>
@@ -34213,7 +34216,7 @@
         <v>16</v>
       </c>
       <c r="Y362" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z362">
         <v>1</v>
@@ -34299,7 +34302,7 @@
         <v>16</v>
       </c>
       <c r="Y363" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z363">
         <v>1</v>
@@ -34385,7 +34388,7 @@
         <v>16</v>
       </c>
       <c r="Y364" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z364">
         <v>1</v>
@@ -34471,7 +34474,7 @@
         <v>16</v>
       </c>
       <c r="Y365" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z365">
         <v>1</v>
@@ -34557,7 +34560,7 @@
         <v>16</v>
       </c>
       <c r="Y366" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z366">
         <v>1</v>
@@ -34643,7 +34646,7 @@
         <v>16</v>
       </c>
       <c r="Y367" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z367">
         <v>1</v>
@@ -34729,7 +34732,7 @@
         <v>16</v>
       </c>
       <c r="Y368" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z368">
         <v>1</v>
@@ -34815,7 +34818,7 @@
         <v>16</v>
       </c>
       <c r="Y369" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z369">
         <v>1</v>
@@ -34901,7 +34904,7 @@
         <v>8</v>
       </c>
       <c r="Y370" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z370">
         <v>1</v>
@@ -34987,7 +34990,7 @@
         <v>8</v>
       </c>
       <c r="Y371" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z371">
         <v>1</v>
@@ -35073,7 +35076,7 @@
         <v>8</v>
       </c>
       <c r="Y372" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z372">
         <v>1</v>
@@ -35159,7 +35162,7 @@
         <v>8</v>
       </c>
       <c r="Y373" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z373">
         <v>1</v>
@@ -35245,7 +35248,7 @@
         <v>8</v>
       </c>
       <c r="Y374" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z374">
         <v>1</v>
@@ -35331,7 +35334,7 @@
         <v>8</v>
       </c>
       <c r="Y375" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z375">
         <v>1</v>
@@ -35417,7 +35420,7 @@
         <v>8</v>
       </c>
       <c r="Y376" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z376">
         <v>1</v>
@@ -35503,7 +35506,7 @@
         <v>8</v>
       </c>
       <c r="Y377" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z377">
         <v>1</v>
@@ -35589,7 +35592,7 @@
         <v>8</v>
       </c>
       <c r="Y378" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z378">
         <v>1</v>
@@ -35675,7 +35678,7 @@
         <v>16</v>
       </c>
       <c r="Y379" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z379">
         <v>1</v>
@@ -35761,7 +35764,7 @@
         <v>16</v>
       </c>
       <c r="Y380" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z380">
         <v>1</v>
@@ -35847,7 +35850,7 @@
         <v>16</v>
       </c>
       <c r="Y381" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z381">
         <v>1</v>
@@ -35933,7 +35936,7 @@
         <v>16</v>
       </c>
       <c r="Y382" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z382">
         <v>1</v>
@@ -36019,7 +36022,7 @@
         <v>16</v>
       </c>
       <c r="Y383" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z383">
         <v>1</v>
@@ -36105,7 +36108,7 @@
         <v>16</v>
       </c>
       <c r="Y384" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z384">
         <v>1</v>
@@ -36191,7 +36194,7 @@
         <v>16</v>
       </c>
       <c r="Y385" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z385">
         <v>1</v>
@@ -36277,7 +36280,7 @@
         <v>16</v>
       </c>
       <c r="Y386" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z386">
         <v>1</v>
@@ -36363,7 +36366,7 @@
         <v>16</v>
       </c>
       <c r="Y387" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z387">
         <v>1</v>
@@ -36449,7 +36452,7 @@
         <v>16</v>
       </c>
       <c r="Y388" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z388">
         <v>1</v>
@@ -36535,7 +36538,7 @@
         <v>16</v>
       </c>
       <c r="Y389" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z389">
         <v>1</v>
@@ -36621,7 +36624,7 @@
         <v>16</v>
       </c>
       <c r="Y390" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z390">
         <v>1</v>
@@ -36707,7 +36710,7 @@
         <v>16</v>
       </c>
       <c r="Y391" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z391">
         <v>1</v>
@@ -36793,7 +36796,7 @@
         <v>16</v>
       </c>
       <c r="Y392" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z392">
         <v>1</v>
@@ -36879,7 +36882,7 @@
         <v>16</v>
       </c>
       <c r="Y393" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z393">
         <v>1</v>
@@ -36965,7 +36968,7 @@
         <v>8</v>
       </c>
       <c r="Y394" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z394">
         <v>1</v>
@@ -37051,7 +37054,7 @@
         <v>8</v>
       </c>
       <c r="Y395" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z395">
         <v>1</v>
@@ -37137,7 +37140,7 @@
         <v>8</v>
       </c>
       <c r="Y396" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z396">
         <v>1</v>
@@ -37223,7 +37226,7 @@
         <v>8</v>
       </c>
       <c r="Y397" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z397">
         <v>1</v>
@@ -37309,7 +37312,7 @@
         <v>8</v>
       </c>
       <c r="Y398" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z398">
         <v>1</v>
@@ -37395,7 +37398,7 @@
         <v>8</v>
       </c>
       <c r="Y399" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z399">
         <v>1</v>
@@ -37481,7 +37484,7 @@
         <v>8</v>
       </c>
       <c r="Y400" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z400">
         <v>1</v>
@@ -37567,7 +37570,7 @@
         <v>8</v>
       </c>
       <c r="Y401" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z401">
         <v>1</v>
@@ -37653,7 +37656,7 @@
         <v>8</v>
       </c>
       <c r="Y402" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z402">
         <v>1</v>
@@ -37739,7 +37742,7 @@
         <v>8</v>
       </c>
       <c r="Y403" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z403">
         <v>1</v>
@@ -37825,7 +37828,7 @@
         <v>8</v>
       </c>
       <c r="Y404" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z404">
         <v>1</v>
@@ -37911,7 +37914,7 @@
         <v>8</v>
       </c>
       <c r="Y405" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z405">
         <v>1</v>
@@ -37997,7 +38000,7 @@
         <v>8</v>
       </c>
       <c r="Y406" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z406">
         <v>1</v>

--- a/data/update2019/ospree_2019update_DSS.xlsx
+++ b/data/update2019/ospree_2019update_DSS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28028"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/ospree/data/update2019/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D38474-F533-9A47-99E7-ED47A67075A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22400" yWindow="6260" windowWidth="25040" windowHeight="14720" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -13,11 +19,8 @@
     <sheet name="data_detailed" sheetId="1" r:id="rId4"/>
     <sheet name="scratch" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
@@ -27,20 +30,25 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dan Flynn</author>
   </authors>
   <commentList>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1152,7 +1160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
@@ -1273,7 +1281,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1318,6 +1326,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1672,33 +1682,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P125"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="60.5" customWidth="1"/>
     <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="34">
+    <row r="1" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="17">
+    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>274</v>
       </c>
@@ -1709,7 +1719,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="17">
+    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1717,7 +1727,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17">
+    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>126</v>
       </c>
@@ -1735,7 +1745,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" ht="17">
+    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>127</v>
       </c>
@@ -1743,7 +1753,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="17">
+    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>128</v>
       </c>
@@ -1751,7 +1761,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="17">
+    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>129</v>
       </c>
@@ -1759,7 +1769,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="17">
+    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>130</v>
       </c>
@@ -1767,7 +1777,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="17">
+    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>131</v>
       </c>
@@ -1775,7 +1785,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17">
+    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>132</v>
       </c>
@@ -1783,7 +1793,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="17">
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>134</v>
       </c>
@@ -1791,7 +1801,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="17">
+    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>135</v>
       </c>
@@ -1799,7 +1809,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17">
+    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>136</v>
       </c>
@@ -1807,7 +1817,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>137</v>
       </c>
@@ -1815,7 +1825,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>138</v>
       </c>
@@ -1823,7 +1833,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>139</v>
       </c>
@@ -1834,7 +1844,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>174</v>
       </c>
@@ -1843,7 +1853,7 @@
       </c>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
         <v>27</v>
       </c>
@@ -1852,7 +1862,7 @@
       </c>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
         <v>177</v>
       </c>
@@ -1861,7 +1871,7 @@
       </c>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" ht="17">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>140</v>
       </c>
@@ -1869,7 +1879,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17">
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>141</v>
       </c>
@@ -1877,7 +1887,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17">
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>142</v>
       </c>
@@ -1885,12 +1895,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17">
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17">
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>275</v>
       </c>
@@ -1898,11 +1908,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="17">
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -1910,7 +1920,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17">
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>144</v>
       </c>
@@ -1918,7 +1928,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17">
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>145</v>
       </c>
@@ -1926,7 +1936,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17">
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>146</v>
       </c>
@@ -1934,7 +1944,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17">
+    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>103</v>
       </c>
@@ -1942,7 +1952,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17">
+    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>147</v>
       </c>
@@ -1950,7 +1960,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17">
+    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>148</v>
       </c>
@@ -1958,7 +1968,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17">
+    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>149</v>
       </c>
@@ -1966,7 +1976,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17">
+    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>150</v>
       </c>
@@ -1974,7 +1984,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17">
+    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>151</v>
       </c>
@@ -1982,7 +1992,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="34">
+    <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>152</v>
       </c>
@@ -1990,7 +2000,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17">
+    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>153</v>
       </c>
@@ -1998,7 +2008,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17">
+    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>154</v>
       </c>
@@ -2006,7 +2016,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17">
+    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>155</v>
       </c>
@@ -2014,7 +2024,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17">
+    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>156</v>
       </c>
@@ -2022,7 +2032,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17">
+    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>157</v>
       </c>
@@ -2030,7 +2040,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17">
+    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>158</v>
       </c>
@@ -2038,7 +2048,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17">
+    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>159</v>
       </c>
@@ -2046,7 +2056,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17">
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>7</v>
       </c>
@@ -2054,7 +2064,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17">
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>136</v>
       </c>
@@ -2062,7 +2072,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17">
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>276</v>
       </c>
@@ -2070,7 +2080,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17">
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>0</v>
       </c>
@@ -2078,7 +2088,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17">
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>1</v>
       </c>
@@ -2086,7 +2096,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17">
+    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>54</v>
       </c>
@@ -2094,7 +2104,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17">
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2102,7 +2112,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17">
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2110,7 +2120,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17">
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>5</v>
       </c>
@@ -2118,7 +2128,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17">
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>7</v>
       </c>
@@ -2126,7 +2136,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17">
+    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>59</v>
       </c>
@@ -2134,7 +2144,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17">
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>61</v>
       </c>
@@ -2148,7 +2158,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17">
+    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
@@ -2156,7 +2166,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="17">
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -2164,7 +2174,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="17">
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>12</v>
       </c>
@@ -2172,7 +2182,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="17">
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>13</v>
       </c>
@@ -2180,7 +2190,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="17">
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>14</v>
       </c>
@@ -2188,7 +2198,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="17">
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>15</v>
       </c>
@@ -2196,7 +2206,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="17">
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>72</v>
       </c>
@@ -2204,7 +2214,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="17">
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>17</v>
       </c>
@@ -2212,7 +2222,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="17">
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>18</v>
       </c>
@@ -2220,7 +2230,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="17">
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>19</v>
       </c>
@@ -2228,7 +2238,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="17">
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>20</v>
       </c>
@@ -2236,7 +2246,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="17">
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>21</v>
       </c>
@@ -2244,7 +2254,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="17">
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>22</v>
       </c>
@@ -2252,7 +2262,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="17">
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>23</v>
       </c>
@@ -2260,7 +2270,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="17">
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>24</v>
       </c>
@@ -2268,7 +2278,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="17">
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>25</v>
       </c>
@@ -2279,7 +2289,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="17">
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>84</v>
       </c>
@@ -2288,7 +2298,7 @@
       </c>
       <c r="C80" s="19"/>
     </row>
-    <row r="81" spans="1:3" ht="17">
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>27</v>
       </c>
@@ -2296,7 +2306,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="17">
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -2304,7 +2314,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="17">
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>29</v>
       </c>
@@ -2312,7 +2322,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="17">
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>90</v>
       </c>
@@ -2320,7 +2330,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="17">
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>92</v>
       </c>
@@ -2331,7 +2341,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="17">
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>95</v>
       </c>
@@ -2340,17 +2350,17 @@
       </c>
       <c r="C86" s="19"/>
     </row>
-    <row r="87" spans="1:3" ht="17">
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="17">
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17">
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>99</v>
       </c>
@@ -2358,7 +2368,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="17">
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>101</v>
       </c>
@@ -2366,7 +2376,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="17">
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>103</v>
       </c>
@@ -2374,7 +2384,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="17">
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>36</v>
       </c>
@@ -2382,7 +2392,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="17">
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>106</v>
       </c>
@@ -2390,7 +2400,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="17">
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>38</v>
       </c>
@@ -2398,12 +2408,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="17">
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="17">
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>109</v>
       </c>
@@ -2414,7 +2424,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="17">
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>42</v>
       </c>
@@ -2423,7 +2433,7 @@
       </c>
       <c r="C97" s="21"/>
     </row>
-    <row r="98" spans="1:3" ht="34">
+    <row r="98" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>43</v>
       </c>
@@ -2432,7 +2442,7 @@
       </c>
       <c r="C98" s="21"/>
     </row>
-    <row r="99" spans="1:3" ht="34">
+    <row r="99" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>44</v>
       </c>
@@ -2441,7 +2451,7 @@
       </c>
       <c r="C99" s="21"/>
     </row>
-    <row r="100" spans="1:3" ht="17">
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>115</v>
       </c>
@@ -2452,7 +2462,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="34">
+    <row r="101" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>118</v>
       </c>
@@ -2461,7 +2471,7 @@
       </c>
       <c r="C101" s="19"/>
     </row>
-    <row r="102" spans="1:3" ht="34">
+    <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>120</v>
       </c>
@@ -2470,7 +2480,7 @@
       </c>
       <c r="C102" s="19"/>
     </row>
-    <row r="103" spans="1:3" ht="17">
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>122</v>
       </c>
@@ -2479,7 +2489,7 @@
       </c>
       <c r="C103" s="19"/>
     </row>
-    <row r="104" spans="1:3" ht="34">
+    <row r="104" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>124</v>
       </c>
@@ -2488,12 +2498,12 @@
       </c>
       <c r="C104" s="19"/>
     </row>
-    <row r="106" spans="1:3" ht="17">
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>282</v>
       </c>
@@ -2501,7 +2511,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>283</v>
       </c>
@@ -2509,7 +2519,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>284</v>
       </c>
@@ -2517,7 +2527,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>285</v>
       </c>
@@ -2525,7 +2535,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>286</v>
       </c>
@@ -2533,7 +2543,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>287</v>
       </c>
@@ -2541,55 +2551,55 @@
         <v>293</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="11"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
       <c r="B114" s="11"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="11"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="11"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="20"/>
       <c r="B117" s="20"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="12"/>
       <c r="B118" s="13"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="10"/>
       <c r="B119" s="11"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
       <c r="B120" s="11"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="10"/>
       <c r="B121" s="11"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="10"/>
       <c r="B122" s="11"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="10"/>
       <c r="B123" s="11"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="10"/>
       <c r="B124" s="11"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="10"/>
       <c r="B125" s="11"/>
     </row>
@@ -2612,7 +2622,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D63" r:id="rId1"/>
+    <hyperlink ref="D63" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2625,20 +2635,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1">
+    <row r="1" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2697,7 +2707,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -2729,7 +2739,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>209</v>
       </c>
@@ -2758,7 +2768,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>211</v>
       </c>
@@ -2790,7 +2800,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>212</v>
       </c>
@@ -2822,7 +2832,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -2849,7 +2859,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -2881,7 +2891,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -2913,7 +2923,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>216</v>
       </c>
@@ -2945,7 +2955,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>217</v>
       </c>
@@ -2977,7 +2987,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>218</v>
       </c>
@@ -3009,7 +3019,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>219</v>
       </c>
@@ -3041,7 +3051,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>224</v>
       </c>
@@ -3096,15 +3106,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -3122,7 +3132,7 @@
     <col min="19" max="19" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3184,7 +3194,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -3219,7 +3229,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>215</v>
       </c>
@@ -3256,14 +3266,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BW406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="BC9" sqref="BC9"/>
+    <sheetView topLeftCell="T217" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="AA226" sqref="AA226:AA239"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
@@ -3284,7 +3294,7 @@
     <col min="36" max="36" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="1" customFormat="1">
+    <row r="1" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3467,7 +3477,7 @@
       <c r="BV1"/>
       <c r="BW1"/>
     </row>
-    <row r="2" spans="1:75">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -3550,7 +3560,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:75">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>209</v>
       </c>
@@ -3633,7 +3643,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:75">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>209</v>
       </c>
@@ -3716,7 +3726,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:75">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>209</v>
       </c>
@@ -3799,7 +3809,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:75">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>209</v>
       </c>
@@ -3882,7 +3892,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:75">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>209</v>
       </c>
@@ -3965,7 +3975,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:75">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -4048,7 +4058,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="1:75">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -4131,7 +4141,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:75">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -4214,7 +4224,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="1:75">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -4297,7 +4307,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:75">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -4380,7 +4390,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:75">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -4463,7 +4473,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:75">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -4546,7 +4556,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="15" spans="1:75">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>209</v>
       </c>
@@ -4629,7 +4639,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:75">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -4712,7 +4722,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>209</v>
       </c>
@@ -4795,7 +4805,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>209</v>
       </c>
@@ -4878,7 +4888,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>209</v>
       </c>
@@ -4961,7 +4971,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>209</v>
       </c>
@@ -5044,7 +5054,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>209</v>
       </c>
@@ -5127,7 +5137,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>209</v>
       </c>
@@ -5210,7 +5220,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>209</v>
       </c>
@@ -5293,7 +5303,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>209</v>
       </c>
@@ -5376,7 +5386,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>209</v>
       </c>
@@ -5459,7 +5469,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>209</v>
       </c>
@@ -5542,7 +5552,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>209</v>
       </c>
@@ -5625,7 +5635,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>209</v>
       </c>
@@ -5708,7 +5718,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>209</v>
       </c>
@@ -5791,7 +5801,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>209</v>
       </c>
@@ -5874,7 +5884,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>209</v>
       </c>
@@ -5957,7 +5967,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>209</v>
       </c>
@@ -6040,7 +6050,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>209</v>
       </c>
@@ -6123,7 +6133,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>209</v>
       </c>
@@ -6206,7 +6216,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>209</v>
       </c>
@@ -6289,7 +6299,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>209</v>
       </c>
@@ -6372,7 +6382,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>209</v>
       </c>
@@ -6455,7 +6465,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>209</v>
       </c>
@@ -6538,7 +6548,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>209</v>
       </c>
@@ -6621,7 +6631,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>209</v>
       </c>
@@ -6704,7 +6714,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>209</v>
       </c>
@@ -6787,7 +6797,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>209</v>
       </c>
@@ -6870,7 +6880,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>209</v>
       </c>
@@ -6953,7 +6963,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>209</v>
       </c>
@@ -7036,7 +7046,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>209</v>
       </c>
@@ -7119,7 +7129,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>209</v>
       </c>
@@ -7202,7 +7212,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>209</v>
       </c>
@@ -7285,7 +7295,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>209</v>
       </c>
@@ -7368,7 +7378,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>209</v>
       </c>
@@ -7451,7 +7461,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>209</v>
       </c>
@@ -7534,7 +7544,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>209</v>
       </c>
@@ -7617,7 +7627,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>209</v>
       </c>
@@ -7700,7 +7710,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>209</v>
       </c>
@@ -7783,7 +7793,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>209</v>
       </c>
@@ -7866,7 +7876,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>209</v>
       </c>
@@ -7949,7 +7959,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>209</v>
       </c>
@@ -8032,7 +8042,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>209</v>
       </c>
@@ -8115,7 +8125,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>209</v>
       </c>
@@ -8198,7 +8208,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>209</v>
       </c>
@@ -8281,7 +8291,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>209</v>
       </c>
@@ -8364,7 +8374,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>209</v>
       </c>
@@ -8447,7 +8457,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>209</v>
       </c>
@@ -8530,7 +8540,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>209</v>
       </c>
@@ -8613,7 +8623,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>209</v>
       </c>
@@ -8696,7 +8706,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>209</v>
       </c>
@@ -8779,7 +8789,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>209</v>
       </c>
@@ -8862,7 +8872,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>209</v>
       </c>
@@ -8945,7 +8955,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>209</v>
       </c>
@@ -9028,7 +9038,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -9111,7 +9121,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>209</v>
       </c>
@@ -9194,7 +9204,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>209</v>
       </c>
@@ -9277,7 +9287,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>209</v>
       </c>
@@ -9360,7 +9370,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>209</v>
       </c>
@@ -9443,7 +9453,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>209</v>
       </c>
@@ -9526,7 +9536,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>209</v>
       </c>
@@ -9609,7 +9619,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>209</v>
       </c>
@@ -9692,7 +9702,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>209</v>
       </c>
@@ -9775,7 +9785,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>209</v>
       </c>
@@ -9858,7 +9868,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>209</v>
       </c>
@@ -9941,7 +9951,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>209</v>
       </c>
@@ -10024,7 +10034,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>209</v>
       </c>
@@ -10107,7 +10117,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>209</v>
       </c>
@@ -10190,7 +10200,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>209</v>
       </c>
@@ -10273,7 +10283,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>209</v>
       </c>
@@ -10356,7 +10366,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>209</v>
       </c>
@@ -10439,7 +10449,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>209</v>
       </c>
@@ -10522,7 +10532,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>209</v>
       </c>
@@ -10605,7 +10615,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>209</v>
       </c>
@@ -10688,7 +10698,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>209</v>
       </c>
@@ -10771,7 +10781,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>209</v>
       </c>
@@ -10854,7 +10864,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>209</v>
       </c>
@@ -10937,7 +10947,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>209</v>
       </c>
@@ -11020,7 +11030,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>209</v>
       </c>
@@ -11103,7 +11113,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>209</v>
       </c>
@@ -11186,7 +11196,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>209</v>
       </c>
@@ -11269,7 +11279,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>209</v>
       </c>
@@ -11352,7 +11362,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>209</v>
       </c>
@@ -11435,7 +11445,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>209</v>
       </c>
@@ -11521,7 +11531,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>209</v>
       </c>
@@ -11607,7 +11617,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>209</v>
       </c>
@@ -11693,7 +11703,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>209</v>
       </c>
@@ -11779,7 +11789,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>209</v>
       </c>
@@ -11865,7 +11875,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>209</v>
       </c>
@@ -11951,7 +11961,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>209</v>
       </c>
@@ -12037,7 +12047,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -12123,7 +12133,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -12209,7 +12219,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>209</v>
       </c>
@@ -12295,7 +12305,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>209</v>
       </c>
@@ -12381,7 +12391,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>209</v>
       </c>
@@ -12467,7 +12477,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>209</v>
       </c>
@@ -12553,7 +12563,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>209</v>
       </c>
@@ -12639,7 +12649,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>209</v>
       </c>
@@ -12725,7 +12735,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>209</v>
       </c>
@@ -12811,7 +12821,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>209</v>
       </c>
@@ -12897,7 +12907,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>209</v>
       </c>
@@ -12983,7 +12993,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>209</v>
       </c>
@@ -13069,7 +13079,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>209</v>
       </c>
@@ -13155,7 +13165,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>209</v>
       </c>
@@ -13241,7 +13251,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="119" spans="1:36">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>209</v>
       </c>
@@ -13327,7 +13337,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="120" spans="1:36">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>209</v>
       </c>
@@ -13413,7 +13423,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="121" spans="1:36">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>209</v>
       </c>
@@ -13499,7 +13509,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="122" spans="1:36">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>209</v>
       </c>
@@ -13585,7 +13595,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>209</v>
       </c>
@@ -13671,7 +13681,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="124" spans="1:36">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>209</v>
       </c>
@@ -13757,7 +13767,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>209</v>
       </c>
@@ -13843,7 +13853,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>209</v>
       </c>
@@ -13929,7 +13939,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>209</v>
       </c>
@@ -14015,7 +14025,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>209</v>
       </c>
@@ -14101,7 +14111,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>209</v>
       </c>
@@ -14187,7 +14197,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>209</v>
       </c>
@@ -14273,7 +14283,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>209</v>
       </c>
@@ -14359,7 +14369,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>209</v>
       </c>
@@ -14445,7 +14455,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>209</v>
       </c>
@@ -14531,7 +14541,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="134" spans="1:36">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>209</v>
       </c>
@@ -14617,7 +14627,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="135" spans="1:36">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>209</v>
       </c>
@@ -14703,7 +14713,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="136" spans="1:36">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>209</v>
       </c>
@@ -14789,7 +14799,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="137" spans="1:36">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>209</v>
       </c>
@@ -14875,7 +14885,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="138" spans="1:36">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>209</v>
       </c>
@@ -14961,7 +14971,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="139" spans="1:36">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>209</v>
       </c>
@@ -15047,7 +15057,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="140" spans="1:36">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>209</v>
       </c>
@@ -15133,7 +15143,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="141" spans="1:36">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>209</v>
       </c>
@@ -15219,7 +15229,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="142" spans="1:36">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>209</v>
       </c>
@@ -15305,7 +15315,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="143" spans="1:36">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>209</v>
       </c>
@@ -15391,7 +15401,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="144" spans="1:36">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>209</v>
       </c>
@@ -15477,7 +15487,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="145" spans="1:36">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>209</v>
       </c>
@@ -15563,7 +15573,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="146" spans="1:36">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>209</v>
       </c>
@@ -15649,7 +15659,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="147" spans="1:36">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>209</v>
       </c>
@@ -15735,7 +15745,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="148" spans="1:36">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>209</v>
       </c>
@@ -15821,7 +15831,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="149" spans="1:36">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>209</v>
       </c>
@@ -15907,7 +15917,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="150" spans="1:36">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>209</v>
       </c>
@@ -15993,7 +16003,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="151" spans="1:36">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>209</v>
       </c>
@@ -16079,7 +16089,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="152" spans="1:36">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>209</v>
       </c>
@@ -16165,7 +16175,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="153" spans="1:36">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>209</v>
       </c>
@@ -16251,7 +16261,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="154" spans="1:36">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>209</v>
       </c>
@@ -16337,7 +16347,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="155" spans="1:36">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>209</v>
       </c>
@@ -16423,7 +16433,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="156" spans="1:36">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>209</v>
       </c>
@@ -16509,7 +16519,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="157" spans="1:36">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>209</v>
       </c>
@@ -16595,7 +16605,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="158" spans="1:36">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>209</v>
       </c>
@@ -16681,7 +16691,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="159" spans="1:36">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>209</v>
       </c>
@@ -16767,7 +16777,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="160" spans="1:36">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>209</v>
       </c>
@@ -16853,7 +16863,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="161" spans="1:36">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>209</v>
       </c>
@@ -16939,7 +16949,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="162" spans="1:36">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>209</v>
       </c>
@@ -17025,7 +17035,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="163" spans="1:36">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>209</v>
       </c>
@@ -17111,7 +17121,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="164" spans="1:36">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>209</v>
       </c>
@@ -17197,7 +17207,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="165" spans="1:36">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>209</v>
       </c>
@@ -17283,7 +17293,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="166" spans="1:36">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>209</v>
       </c>
@@ -17369,7 +17379,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="167" spans="1:36">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>209</v>
       </c>
@@ -17455,7 +17465,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="168" spans="1:36">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>209</v>
       </c>
@@ -17541,7 +17551,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="169" spans="1:36">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>209</v>
       </c>
@@ -17627,7 +17637,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="170" spans="1:36">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>209</v>
       </c>
@@ -17713,7 +17723,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="171" spans="1:36">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>209</v>
       </c>
@@ -17799,7 +17809,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="172" spans="1:36">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>209</v>
       </c>
@@ -17885,7 +17895,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="173" spans="1:36">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>209</v>
       </c>
@@ -17971,7 +17981,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="174" spans="1:36">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>209</v>
       </c>
@@ -18057,7 +18067,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="175" spans="1:36">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>209</v>
       </c>
@@ -18143,7 +18153,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="176" spans="1:36">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>209</v>
       </c>
@@ -18229,7 +18239,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="177" spans="1:36">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>209</v>
       </c>
@@ -18315,7 +18325,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="178" spans="1:36">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>209</v>
       </c>
@@ -18401,7 +18411,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="179" spans="1:36">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>209</v>
       </c>
@@ -18487,7 +18497,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="180" spans="1:36">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>209</v>
       </c>
@@ -18573,7 +18583,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="181" spans="1:36">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>209</v>
       </c>
@@ -18659,7 +18669,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="182" spans="1:36">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>209</v>
       </c>
@@ -18745,7 +18755,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="183" spans="1:36">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>209</v>
       </c>
@@ -18831,7 +18841,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="184" spans="1:36">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>209</v>
       </c>
@@ -18917,7 +18927,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="185" spans="1:36">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>209</v>
       </c>
@@ -19003,7 +19013,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="186" spans="1:36">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>209</v>
       </c>
@@ -19089,7 +19099,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="187" spans="1:36">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>209</v>
       </c>
@@ -19175,7 +19185,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="188" spans="1:36">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>209</v>
       </c>
@@ -19261,7 +19271,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="189" spans="1:36">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>209</v>
       </c>
@@ -19347,7 +19357,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="190" spans="1:36">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -19433,7 +19443,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="191" spans="1:36">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>209</v>
       </c>
@@ -19519,7 +19529,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="192" spans="1:36">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>209</v>
       </c>
@@ -19605,7 +19615,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="193" spans="1:36">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -19691,7 +19701,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="194" spans="1:36">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>209</v>
       </c>
@@ -19774,7 +19784,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="195" spans="1:36">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>209</v>
       </c>
@@ -19857,7 +19867,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="196" spans="1:36">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>209</v>
       </c>
@@ -19940,7 +19950,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="197" spans="1:36">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>209</v>
       </c>
@@ -20023,7 +20033,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="198" spans="1:36">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>209</v>
       </c>
@@ -20106,7 +20116,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="199" spans="1:36">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>209</v>
       </c>
@@ -20189,7 +20199,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="200" spans="1:36">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>209</v>
       </c>
@@ -20272,7 +20282,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="201" spans="1:36">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>209</v>
       </c>
@@ -20355,7 +20365,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="202" spans="1:36">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>209</v>
       </c>
@@ -20438,7 +20448,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="203" spans="1:36">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -20521,7 +20531,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="204" spans="1:36">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>209</v>
       </c>
@@ -20604,7 +20614,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="205" spans="1:36">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>209</v>
       </c>
@@ -20687,7 +20697,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="206" spans="1:36">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -20770,7 +20780,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="207" spans="1:36">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -20853,7 +20863,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="208" spans="1:36">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -20936,7 +20946,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="209" spans="1:36">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -21019,7 +21029,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="210" spans="1:36">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -21102,7 +21112,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="211" spans="1:36">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -21185,7 +21195,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="212" spans="1:36">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -21268,7 +21278,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="213" spans="1:36">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>209</v>
       </c>
@@ -21351,7 +21361,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="214" spans="1:36">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>209</v>
       </c>
@@ -21434,7 +21444,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="215" spans="1:36">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>209</v>
       </c>
@@ -21517,7 +21527,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="216" spans="1:36">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>209</v>
       </c>
@@ -21600,7 +21610,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="217" spans="1:36">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>209</v>
       </c>
@@ -21683,7 +21693,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="218" spans="1:36">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>209</v>
       </c>
@@ -21766,7 +21776,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="219" spans="1:36">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>209</v>
       </c>
@@ -21849,7 +21859,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="220" spans="1:36">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>209</v>
       </c>
@@ -21932,7 +21942,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="221" spans="1:36">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>209</v>
       </c>
@@ -22015,7 +22025,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="222" spans="1:36">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>209</v>
       </c>
@@ -22098,7 +22108,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="223" spans="1:36">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>209</v>
       </c>
@@ -22181,7 +22191,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="224" spans="1:36">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>209</v>
       </c>
@@ -22264,7 +22274,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="225" spans="1:39">
+    <row r="225" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>209</v>
       </c>
@@ -22347,7 +22357,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="226" spans="1:39">
+    <row r="226" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>215</v>
       </c>
@@ -22433,7 +22443,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="227" spans="1:39">
+    <row r="227" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>215</v>
       </c>
@@ -22519,7 +22529,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="228" spans="1:39">
+    <row r="228" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>215</v>
       </c>
@@ -22605,7 +22615,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="229" spans="1:39">
+    <row r="229" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>215</v>
       </c>
@@ -22691,7 +22701,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="230" spans="1:39">
+    <row r="230" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>215</v>
       </c>
@@ -22777,7 +22787,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="231" spans="1:39">
+    <row r="231" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>215</v>
       </c>
@@ -22863,7 +22873,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="232" spans="1:39">
+    <row r="232" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>215</v>
       </c>
@@ -22949,7 +22959,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="233" spans="1:39">
+    <row r="233" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>215</v>
       </c>
@@ -23035,7 +23045,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="234" spans="1:39">
+    <row r="234" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>215</v>
       </c>
@@ -23121,7 +23131,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="235" spans="1:39">
+    <row r="235" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>215</v>
       </c>
@@ -23207,7 +23217,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="236" spans="1:39">
+    <row r="236" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>215</v>
       </c>
@@ -23293,7 +23303,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="237" spans="1:39">
+    <row r="237" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>215</v>
       </c>
@@ -23379,7 +23389,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="238" spans="1:39">
+    <row r="238" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>215</v>
       </c>
@@ -23465,7 +23475,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="239" spans="1:39">
+    <row r="239" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>215</v>
       </c>
@@ -23551,7 +23561,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="240" spans="1:39">
+    <row r="240" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>215</v>
       </c>
@@ -23637,7 +23647,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="241" spans="1:39">
+    <row r="241" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>215</v>
       </c>
@@ -23723,7 +23733,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="242" spans="1:39">
+    <row r="242" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>215</v>
       </c>
@@ -23809,7 +23819,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="243" spans="1:39">
+    <row r="243" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>215</v>
       </c>
@@ -23895,7 +23905,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="244" spans="1:39">
+    <row r="244" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>215</v>
       </c>
@@ -23981,7 +23991,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="245" spans="1:39">
+    <row r="245" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>215</v>
       </c>
@@ -24067,7 +24077,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="246" spans="1:39">
+    <row r="246" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>215</v>
       </c>
@@ -24153,7 +24163,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="247" spans="1:39">
+    <row r="247" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>215</v>
       </c>
@@ -24239,7 +24249,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="248" spans="1:39">
+    <row r="248" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>215</v>
       </c>
@@ -24325,7 +24335,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="249" spans="1:39">
+    <row r="249" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>215</v>
       </c>
@@ -24411,7 +24421,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="250" spans="1:39">
+    <row r="250" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>215</v>
       </c>
@@ -24497,7 +24507,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="251" spans="1:39">
+    <row r="251" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>215</v>
       </c>
@@ -24583,7 +24593,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="252" spans="1:39">
+    <row r="252" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>215</v>
       </c>
@@ -24669,7 +24679,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="253" spans="1:39">
+    <row r="253" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>215</v>
       </c>
@@ -24755,7 +24765,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="254" spans="1:39">
+    <row r="254" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>215</v>
       </c>
@@ -24841,7 +24851,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="255" spans="1:39">
+    <row r="255" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>215</v>
       </c>
@@ -24927,7 +24937,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="256" spans="1:39">
+    <row r="256" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>215</v>
       </c>
@@ -25013,7 +25023,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="257" spans="1:39">
+    <row r="257" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>215</v>
       </c>
@@ -25099,7 +25109,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="258" spans="1:39">
+    <row r="258" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>215</v>
       </c>
@@ -25185,7 +25195,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="259" spans="1:39">
+    <row r="259" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>215</v>
       </c>
@@ -25271,7 +25281,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="260" spans="1:39">
+    <row r="260" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>215</v>
       </c>
@@ -25357,7 +25367,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="261" spans="1:39">
+    <row r="261" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>215</v>
       </c>
@@ -25443,7 +25453,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="262" spans="1:39">
+    <row r="262" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>215</v>
       </c>
@@ -25529,7 +25539,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="263" spans="1:39">
+    <row r="263" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>215</v>
       </c>
@@ -25615,7 +25625,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="264" spans="1:39">
+    <row r="264" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>215</v>
       </c>
@@ -25701,7 +25711,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="265" spans="1:39">
+    <row r="265" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>215</v>
       </c>
@@ -25787,7 +25797,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="266" spans="1:39">
+    <row r="266" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>215</v>
       </c>
@@ -25873,7 +25883,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="267" spans="1:39">
+    <row r="267" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>215</v>
       </c>
@@ -25959,7 +25969,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="268" spans="1:39">
+    <row r="268" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>215</v>
       </c>
@@ -26045,7 +26055,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="269" spans="1:39">
+    <row r="269" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>215</v>
       </c>
@@ -26131,7 +26141,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="270" spans="1:39">
+    <row r="270" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>215</v>
       </c>
@@ -26217,7 +26227,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="271" spans="1:39">
+    <row r="271" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>215</v>
       </c>
@@ -26303,7 +26313,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="272" spans="1:39">
+    <row r="272" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>215</v>
       </c>
@@ -26389,7 +26399,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="273" spans="1:39">
+    <row r="273" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>215</v>
       </c>
@@ -26475,7 +26485,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="274" spans="1:39">
+    <row r="274" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>215</v>
       </c>
@@ -26561,7 +26571,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="275" spans="1:39">
+    <row r="275" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>215</v>
       </c>
@@ -26647,7 +26657,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="276" spans="1:39">
+    <row r="276" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>215</v>
       </c>
@@ -26733,7 +26743,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="277" spans="1:39">
+    <row r="277" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>215</v>
       </c>
@@ -26819,7 +26829,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="278" spans="1:39">
+    <row r="278" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>215</v>
       </c>
@@ -26905,7 +26915,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="279" spans="1:39">
+    <row r="279" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>215</v>
       </c>
@@ -26991,7 +27001,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="280" spans="1:39">
+    <row r="280" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>215</v>
       </c>
@@ -27077,7 +27087,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="281" spans="1:39">
+    <row r="281" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>215</v>
       </c>
@@ -27163,7 +27173,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="282" spans="1:39">
+    <row r="282" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>215</v>
       </c>
@@ -27249,7 +27259,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="283" spans="1:39">
+    <row r="283" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>215</v>
       </c>
@@ -27335,7 +27345,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="284" spans="1:39">
+    <row r="284" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>215</v>
       </c>
@@ -27421,7 +27431,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="285" spans="1:39">
+    <row r="285" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>215</v>
       </c>
@@ -27507,7 +27517,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="286" spans="1:39">
+    <row r="286" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>215</v>
       </c>
@@ -27593,7 +27603,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="287" spans="1:39">
+    <row r="287" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>215</v>
       </c>
@@ -27679,7 +27689,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="288" spans="1:39">
+    <row r="288" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>215</v>
       </c>
@@ -27765,7 +27775,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="289" spans="1:39">
+    <row r="289" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>215</v>
       </c>
@@ -27851,7 +27861,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="290" spans="1:39">
+    <row r="290" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>215</v>
       </c>
@@ -27937,7 +27947,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="291" spans="1:39">
+    <row r="291" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>215</v>
       </c>
@@ -28023,7 +28033,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="292" spans="1:39">
+    <row r="292" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>215</v>
       </c>
@@ -28109,7 +28119,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="293" spans="1:39">
+    <row r="293" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>215</v>
       </c>
@@ -28195,7 +28205,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="294" spans="1:39">
+    <row r="294" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>215</v>
       </c>
@@ -28281,7 +28291,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="295" spans="1:39">
+    <row r="295" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>215</v>
       </c>
@@ -28367,7 +28377,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="296" spans="1:39">
+    <row r="296" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>215</v>
       </c>
@@ -28453,7 +28463,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="297" spans="1:39">
+    <row r="297" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>215</v>
       </c>
@@ -28539,7 +28549,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="298" spans="1:39">
+    <row r="298" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>215</v>
       </c>
@@ -28625,7 +28635,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="299" spans="1:39">
+    <row r="299" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>215</v>
       </c>
@@ -28711,7 +28721,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="300" spans="1:39">
+    <row r="300" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>215</v>
       </c>
@@ -28797,7 +28807,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="301" spans="1:39">
+    <row r="301" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>215</v>
       </c>
@@ -28883,7 +28893,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="302" spans="1:39">
+    <row r="302" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>215</v>
       </c>
@@ -28969,7 +28979,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="303" spans="1:39">
+    <row r="303" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>215</v>
       </c>
@@ -29055,7 +29065,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="304" spans="1:39">
+    <row r="304" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>215</v>
       </c>
@@ -29141,7 +29151,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="305" spans="1:39">
+    <row r="305" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>215</v>
       </c>
@@ -29227,7 +29237,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="306" spans="1:39">
+    <row r="306" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>215</v>
       </c>
@@ -29313,7 +29323,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="307" spans="1:39">
+    <row r="307" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>215</v>
       </c>
@@ -29399,7 +29409,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="308" spans="1:39">
+    <row r="308" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>215</v>
       </c>
@@ -29485,7 +29495,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="309" spans="1:39">
+    <row r="309" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>215</v>
       </c>
@@ -29571,7 +29581,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="310" spans="1:39">
+    <row r="310" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>215</v>
       </c>
@@ -29657,7 +29667,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="311" spans="1:39">
+    <row r="311" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>215</v>
       </c>
@@ -29743,7 +29753,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="312" spans="1:39">
+    <row r="312" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>215</v>
       </c>
@@ -29829,7 +29839,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="313" spans="1:39">
+    <row r="313" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>215</v>
       </c>
@@ -29915,7 +29925,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="314" spans="1:39">
+    <row r="314" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>215</v>
       </c>
@@ -30001,7 +30011,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="315" spans="1:39">
+    <row r="315" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>215</v>
       </c>
@@ -30087,7 +30097,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="316" spans="1:39">
+    <row r="316" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>215</v>
       </c>
@@ -30173,7 +30183,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="317" spans="1:39">
+    <row r="317" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>215</v>
       </c>
@@ -30259,7 +30269,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="318" spans="1:39">
+    <row r="318" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>215</v>
       </c>
@@ -30345,7 +30355,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="319" spans="1:39">
+    <row r="319" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>215</v>
       </c>
@@ -30431,7 +30441,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="320" spans="1:39">
+    <row r="320" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>215</v>
       </c>
@@ -30517,7 +30527,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="321" spans="1:39">
+    <row r="321" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>215</v>
       </c>
@@ -30603,7 +30613,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="322" spans="1:39">
+    <row r="322" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>215</v>
       </c>
@@ -30689,7 +30699,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="323" spans="1:39">
+    <row r="323" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>215</v>
       </c>
@@ -30775,7 +30785,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="324" spans="1:39">
+    <row r="324" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>215</v>
       </c>
@@ -30861,7 +30871,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="325" spans="1:39">
+    <row r="325" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>215</v>
       </c>
@@ -30947,7 +30957,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="326" spans="1:39">
+    <row r="326" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>215</v>
       </c>
@@ -31033,7 +31043,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="327" spans="1:39">
+    <row r="327" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>215</v>
       </c>
@@ -31119,7 +31129,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="328" spans="1:39">
+    <row r="328" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>215</v>
       </c>
@@ -31205,7 +31215,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="329" spans="1:39">
+    <row r="329" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>215</v>
       </c>
@@ -31291,7 +31301,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="330" spans="1:39">
+    <row r="330" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>215</v>
       </c>
@@ -31377,7 +31387,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="331" spans="1:39">
+    <row r="331" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>215</v>
       </c>
@@ -31463,7 +31473,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="332" spans="1:39">
+    <row r="332" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>215</v>
       </c>
@@ -31549,7 +31559,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="333" spans="1:39">
+    <row r="333" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>215</v>
       </c>
@@ -31635,7 +31645,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="334" spans="1:39">
+    <row r="334" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>215</v>
       </c>
@@ -31721,7 +31731,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="335" spans="1:39">
+    <row r="335" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>215</v>
       </c>
@@ -31807,7 +31817,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="336" spans="1:39">
+    <row r="336" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>215</v>
       </c>
@@ -31893,7 +31903,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="337" spans="1:39">
+    <row r="337" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>215</v>
       </c>
@@ -31979,7 +31989,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="338" spans="1:39">
+    <row r="338" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>215</v>
       </c>
@@ -32065,7 +32075,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="339" spans="1:39">
+    <row r="339" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>215</v>
       </c>
@@ -32151,7 +32161,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="340" spans="1:39">
+    <row r="340" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>215</v>
       </c>
@@ -32237,7 +32247,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="341" spans="1:39">
+    <row r="341" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>215</v>
       </c>
@@ -32323,7 +32333,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="342" spans="1:39">
+    <row r="342" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>215</v>
       </c>
@@ -32409,7 +32419,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="343" spans="1:39">
+    <row r="343" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>215</v>
       </c>
@@ -32495,7 +32505,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="344" spans="1:39">
+    <row r="344" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>215</v>
       </c>
@@ -32581,7 +32591,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="345" spans="1:39">
+    <row r="345" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>215</v>
       </c>
@@ -32667,7 +32677,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="346" spans="1:39">
+    <row r="346" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>215</v>
       </c>
@@ -32753,7 +32763,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="347" spans="1:39">
+    <row r="347" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>215</v>
       </c>
@@ -32839,7 +32849,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="348" spans="1:39">
+    <row r="348" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>215</v>
       </c>
@@ -32925,7 +32935,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="349" spans="1:39">
+    <row r="349" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>215</v>
       </c>
@@ -33011,7 +33021,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="350" spans="1:39">
+    <row r="350" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>215</v>
       </c>
@@ -33097,7 +33107,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="351" spans="1:39">
+    <row r="351" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>215</v>
       </c>
@@ -33183,7 +33193,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:39">
+    <row r="352" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>215</v>
       </c>
@@ -33269,7 +33279,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="353" spans="1:39">
+    <row r="353" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>215</v>
       </c>
@@ -33355,7 +33365,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="354" spans="1:39">
+    <row r="354" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>215</v>
       </c>
@@ -33441,7 +33451,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="355" spans="1:39">
+    <row r="355" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>215</v>
       </c>
@@ -33527,7 +33537,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="356" spans="1:39">
+    <row r="356" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>215</v>
       </c>
@@ -33613,7 +33623,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="357" spans="1:39">
+    <row r="357" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>215</v>
       </c>
@@ -33699,7 +33709,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="358" spans="1:39">
+    <row r="358" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>215</v>
       </c>
@@ -33785,7 +33795,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="359" spans="1:39">
+    <row r="359" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>215</v>
       </c>
@@ -33871,7 +33881,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="360" spans="1:39">
+    <row r="360" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>215</v>
       </c>
@@ -33957,7 +33967,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="361" spans="1:39">
+    <row r="361" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>215</v>
       </c>
@@ -34043,7 +34053,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="362" spans="1:39">
+    <row r="362" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>215</v>
       </c>
@@ -34129,7 +34139,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="363" spans="1:39">
+    <row r="363" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>215</v>
       </c>
@@ -34215,7 +34225,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="364" spans="1:39">
+    <row r="364" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>215</v>
       </c>
@@ -34301,7 +34311,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="365" spans="1:39">
+    <row r="365" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>215</v>
       </c>
@@ -34387,7 +34397,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="366" spans="1:39">
+    <row r="366" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>215</v>
       </c>
@@ -34473,7 +34483,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="367" spans="1:39">
+    <row r="367" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>215</v>
       </c>
@@ -34559,7 +34569,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="368" spans="1:39">
+    <row r="368" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>215</v>
       </c>
@@ -34645,7 +34655,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="369" spans="1:39">
+    <row r="369" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>215</v>
       </c>
@@ -34731,7 +34741,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="370" spans="1:39">
+    <row r="370" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>215</v>
       </c>
@@ -34817,7 +34827,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="371" spans="1:39">
+    <row r="371" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>215</v>
       </c>
@@ -34903,7 +34913,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="372" spans="1:39">
+    <row r="372" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>215</v>
       </c>
@@ -34989,7 +34999,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="373" spans="1:39">
+    <row r="373" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>215</v>
       </c>
@@ -35075,7 +35085,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="374" spans="1:39">
+    <row r="374" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>215</v>
       </c>
@@ -35161,7 +35171,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="375" spans="1:39">
+    <row r="375" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>215</v>
       </c>
@@ -35247,7 +35257,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="376" spans="1:39">
+    <row r="376" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>215</v>
       </c>
@@ -35333,7 +35343,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="377" spans="1:39">
+    <row r="377" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>215</v>
       </c>
@@ -35419,7 +35429,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="378" spans="1:39">
+    <row r="378" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>215</v>
       </c>
@@ -35505,7 +35515,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="379" spans="1:39">
+    <row r="379" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>215</v>
       </c>
@@ -35591,7 +35601,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="380" spans="1:39">
+    <row r="380" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>215</v>
       </c>
@@ -35677,7 +35687,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="381" spans="1:39">
+    <row r="381" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>215</v>
       </c>
@@ -35763,7 +35773,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="382" spans="1:39">
+    <row r="382" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>215</v>
       </c>
@@ -35849,7 +35859,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="383" spans="1:39">
+    <row r="383" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>215</v>
       </c>
@@ -35935,7 +35945,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="384" spans="1:39">
+    <row r="384" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>215</v>
       </c>
@@ -36021,7 +36031,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="385" spans="1:39">
+    <row r="385" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>215</v>
       </c>
@@ -36107,7 +36117,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="386" spans="1:39">
+    <row r="386" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>215</v>
       </c>
@@ -36193,7 +36203,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="387" spans="1:39">
+    <row r="387" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>215</v>
       </c>
@@ -36279,7 +36289,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="388" spans="1:39">
+    <row r="388" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>215</v>
       </c>
@@ -36365,7 +36375,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="389" spans="1:39">
+    <row r="389" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>215</v>
       </c>
@@ -36451,7 +36461,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="390" spans="1:39">
+    <row r="390" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>215</v>
       </c>
@@ -36537,7 +36547,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="391" spans="1:39">
+    <row r="391" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>215</v>
       </c>
@@ -36623,7 +36633,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="392" spans="1:39">
+    <row r="392" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>215</v>
       </c>
@@ -36709,7 +36719,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="393" spans="1:39">
+    <row r="393" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>215</v>
       </c>
@@ -36795,7 +36805,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="394" spans="1:39">
+    <row r="394" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>215</v>
       </c>
@@ -36881,7 +36891,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="395" spans="1:39">
+    <row r="395" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>215</v>
       </c>
@@ -36967,7 +36977,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="396" spans="1:39">
+    <row r="396" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>215</v>
       </c>
@@ -37053,7 +37063,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="397" spans="1:39">
+    <row r="397" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>215</v>
       </c>
@@ -37139,7 +37149,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="398" spans="1:39">
+    <row r="398" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>215</v>
       </c>
@@ -37225,7 +37235,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="399" spans="1:39">
+    <row r="399" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>215</v>
       </c>
@@ -37311,7 +37321,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="400" spans="1:39">
+    <row r="400" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>215</v>
       </c>
@@ -37397,7 +37407,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="401" spans="1:39">
+    <row r="401" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>215</v>
       </c>
@@ -37483,7 +37493,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="402" spans="1:39">
+    <row r="402" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>215</v>
       </c>
@@ -37569,7 +37579,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="403" spans="1:39">
+    <row r="403" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>215</v>
       </c>
@@ -37655,7 +37665,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="404" spans="1:39">
+    <row r="404" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>215</v>
       </c>
@@ -37741,7 +37751,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="405" spans="1:39">
+    <row r="405" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>215</v>
       </c>
@@ -37827,7 +37837,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="406" spans="1:39">
+    <row r="406" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>215</v>
       </c>
@@ -37926,23 +37936,465 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>81.754999999999995</v>
+      </c>
+      <c r="J7">
+        <f>AVERAGE(I7,I8)</f>
+        <v>81.754999999999995</v>
+      </c>
+      <c r="K7" s="22">
+        <v>41621</v>
+      </c>
+      <c r="M7">
+        <v>130.16300000000001</v>
+      </c>
+      <c r="N7">
+        <v>130.16300000000001</v>
+      </c>
+      <c r="O7">
+        <f>AVERAGE(M7,N7)</f>
+        <v>130.16300000000001</v>
+      </c>
+      <c r="P7" s="22">
+        <v>41621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>81.754999999999995</v>
+      </c>
+      <c r="M8">
+        <v>140.37100000000001</v>
+      </c>
+      <c r="N8">
+        <v>140.12200000000001</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:O21" si="0">AVERAGE(M8,N8)</f>
+        <v>140.24650000000003</v>
+      </c>
+      <c r="P8" s="22">
+        <v>41631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>93.013000000000005</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J8:J36" si="1">AVERAGE(I9,I10)</f>
+        <v>93.013000000000005</v>
+      </c>
+      <c r="K9" s="22">
+        <v>41631</v>
+      </c>
+      <c r="M9">
+        <v>150.58000000000001</v>
+      </c>
+      <c r="N9">
+        <v>150.33099999999999</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>150.4555</v>
+      </c>
+      <c r="P9" s="22">
+        <v>41641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>93.013000000000005</v>
+      </c>
+      <c r="M10">
+        <v>158.29900000000001</v>
+      </c>
+      <c r="N10">
+        <v>158.548</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>158.42349999999999</v>
+      </c>
+      <c r="P10" s="22">
+        <v>41649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>104.27</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>103.99549999999999</v>
+      </c>
+      <c r="K11" s="22">
+        <v>41641</v>
+      </c>
+      <c r="M11">
+        <v>168.50800000000001</v>
+      </c>
+      <c r="N11">
+        <v>168.75700000000001</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>168.63249999999999</v>
+      </c>
+      <c r="P11" s="22">
+        <v>41659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>103.721</v>
+      </c>
+      <c r="M12">
+        <v>179.215</v>
+      </c>
+      <c r="N12">
+        <v>178.71700000000001</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>178.96600000000001</v>
+      </c>
+      <c r="P12" s="22">
+        <v>41669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>113.331</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>113.0565</v>
+      </c>
+      <c r="K13" s="22">
+        <v>41651</v>
+      </c>
+      <c r="M13">
+        <v>188.92599999999999</v>
+      </c>
+      <c r="N13">
+        <v>189.17500000000001</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>189.0505</v>
+      </c>
+      <c r="P13" s="22">
+        <v>41679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>112.782</v>
+      </c>
+      <c r="M14">
+        <v>199.38399999999999</v>
+      </c>
+      <c r="N14">
+        <v>199.38399999999999</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>199.38399999999999</v>
+      </c>
+      <c r="P14" s="23">
+        <v>41689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>124.31399999999999</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>124.17699999999999</v>
+      </c>
+      <c r="K15" s="22">
+        <v>41661</v>
+      </c>
+      <c r="M15">
+        <v>209.59200000000001</v>
+      </c>
+      <c r="N15">
+        <v>209.59200000000001</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>209.59200000000001</v>
+      </c>
+      <c r="P15" s="23">
+        <v>41699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>124.04</v>
+      </c>
+      <c r="M16">
+        <v>217.56</v>
+      </c>
+      <c r="N16">
+        <v>218.05799999999999</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>217.809</v>
+      </c>
+      <c r="P16" s="23">
+        <v>41707</v>
+      </c>
+    </row>
+    <row r="17" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>135.297</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>135.43450000000001</v>
+      </c>
+      <c r="K17" s="22">
+        <v>41671</v>
+      </c>
+      <c r="M17">
+        <v>225.77699999999999</v>
+      </c>
+      <c r="N17">
+        <v>226.02600000000001</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>225.9015</v>
+      </c>
+      <c r="P17" s="22">
+        <v>41716</v>
+      </c>
+    </row>
+    <row r="18" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>135.572</v>
+      </c>
+      <c r="M18">
+        <v>232.00200000000001</v>
+      </c>
+      <c r="N18">
+        <v>232.251</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>232.12650000000002</v>
+      </c>
+      <c r="P18" s="23">
+        <v>41722</v>
+      </c>
+    </row>
+    <row r="19" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>146.83000000000001</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>146.6925</v>
+      </c>
+      <c r="K19" s="22">
+        <v>41681</v>
+      </c>
+      <c r="M19">
+        <v>239.22300000000001</v>
+      </c>
+      <c r="N19">
+        <v>239.47200000000001</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>239.34750000000003</v>
+      </c>
+      <c r="P19" s="22">
+        <v>41729</v>
+      </c>
+    </row>
+    <row r="20" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>146.55500000000001</v>
+      </c>
+      <c r="M20">
+        <v>246.19499999999999</v>
+      </c>
+      <c r="N20">
+        <v>246.19499999999999</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>246.19499999999999</v>
+      </c>
+      <c r="P20" s="23">
+        <v>41736</v>
+      </c>
+    </row>
+    <row r="21" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>158.08699999999999</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>157.94999999999999</v>
+      </c>
+      <c r="K21" s="22">
+        <v>41691</v>
+      </c>
+      <c r="M21">
+        <v>254.661</v>
+      </c>
+      <c r="N21">
+        <v>254.91</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>254.78550000000001</v>
+      </c>
+      <c r="P21" s="22"/>
+    </row>
+    <row r="22" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>157.81299999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>169.07</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>168.93299999999999</v>
+      </c>
+      <c r="K23" s="22">
+        <v>41701</v>
+      </c>
+      <c r="P23" s="22"/>
+    </row>
+    <row r="24" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>168.79599999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>178.40600000000001</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>178.26850000000002</v>
+      </c>
+      <c r="K25" s="22">
+        <v>41711</v>
+      </c>
+      <c r="P25" s="22"/>
+    </row>
+    <row r="26" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>178.131</v>
+      </c>
+    </row>
+    <row r="27" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>187.19200000000001</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>187.19200000000001</v>
+      </c>
+      <c r="K27" s="22">
+        <v>41720</v>
+      </c>
+      <c r="P27" s="22"/>
+    </row>
+    <row r="28" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>187.19200000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>193.233</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>193.64499999999998</v>
+      </c>
+      <c r="K29" s="22">
+        <v>41727</v>
+      </c>
+    </row>
+    <row r="30" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>194.05699999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>202.01900000000001</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>202.01900000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>202.01900000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>209.708</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>209.57049999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>209.43299999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>218.76900000000001</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>218.76900000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>218.76900000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/update2019/ospree_2019update_DSS.xlsx
+++ b/data/update2019/ospree_2019update_DSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/ospree/data/update2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D38474-F533-9A47-99E7-ED47A67075A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB375AC-A3C7-E448-86AC-55F840597126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -3269,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BW406"/>
   <sheetViews>
-    <sheetView topLeftCell="T217" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="AA226" sqref="AA226:AA239"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37939,8 +37939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38277,7 +38277,9 @@
         <f t="shared" si="0"/>
         <v>254.78550000000001</v>
       </c>
-      <c r="P21" s="22"/>
+      <c r="P21" s="22">
+        <v>41745</v>
+      </c>
     </row>
     <row r="22" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I22">

--- a/data/update2019/ospree_2019update_DSS.xlsx
+++ b/data/update2019/ospree_2019update_DSS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/ospree/data/update2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CatherineChamberlain/Documents/git/ospree/data/update2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB375AC-A3C7-E448-86AC-55F840597126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -19,12 +18,15 @@
     <sheet name="data_detailed" sheetId="1" r:id="rId4"/>
     <sheet name="scratch" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,20 +37,17 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dan Flynn</author>
   </authors>
   <commentList>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5960" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5974" uniqueCount="356">
   <si>
     <t>datasetID</t>
   </si>
@@ -1156,11 +1155,14 @@
   <si>
     <t>thermaltimetohours</t>
   </si>
+  <si>
+    <t>Screen Shot 2020-04-14 at 11.51.40 AM.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
@@ -1317,6 +1319,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1326,8 +1330,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1689,7 +1691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P125"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
@@ -1703,12 +1705,12 @@
     <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>274</v>
       </c>
@@ -1719,7 +1721,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +1729,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>126</v>
       </c>
@@ -1745,7 +1747,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>127</v>
       </c>
@@ -1753,7 +1755,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>128</v>
       </c>
@@ -1761,7 +1763,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>129</v>
       </c>
@@ -1769,7 +1771,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>130</v>
       </c>
@@ -1777,7 +1779,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>131</v>
       </c>
@@ -1785,7 +1787,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>132</v>
       </c>
@@ -1793,7 +1795,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>134</v>
       </c>
@@ -1801,7 +1803,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>135</v>
       </c>
@@ -1809,7 +1811,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>136</v>
       </c>
@@ -1817,7 +1819,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>137</v>
       </c>
@@ -1825,7 +1827,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>138</v>
       </c>
@@ -1833,7 +1835,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>139</v>
       </c>
@@ -1871,7 +1873,7 @@
       </c>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>140</v>
       </c>
@@ -1879,7 +1881,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>141</v>
       </c>
@@ -1887,7 +1889,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>142</v>
       </c>
@@ -1895,12 +1897,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>275</v>
       </c>
@@ -1912,7 +1914,7 @@
       <c r="A30" s="4"/>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -1920,7 +1922,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>144</v>
       </c>
@@ -1928,7 +1930,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>145</v>
       </c>
@@ -1936,7 +1938,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>146</v>
       </c>
@@ -1944,7 +1946,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>103</v>
       </c>
@@ -1952,7 +1954,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>147</v>
       </c>
@@ -1960,7 +1962,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>148</v>
       </c>
@@ -1968,7 +1970,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>149</v>
       </c>
@@ -1976,7 +1978,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>150</v>
       </c>
@@ -1984,7 +1986,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>151</v>
       </c>
@@ -1992,7 +1994,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>152</v>
       </c>
@@ -2000,7 +2002,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>153</v>
       </c>
@@ -2008,7 +2010,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>154</v>
       </c>
@@ -2016,7 +2018,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>155</v>
       </c>
@@ -2024,7 +2026,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>156</v>
       </c>
@@ -2032,7 +2034,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>157</v>
       </c>
@@ -2040,7 +2042,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>158</v>
       </c>
@@ -2048,7 +2050,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>159</v>
       </c>
@@ -2056,7 +2058,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>7</v>
       </c>
@@ -2064,7 +2066,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>136</v>
       </c>
@@ -2072,7 +2074,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>276</v>
       </c>
@@ -2080,7 +2082,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>0</v>
       </c>
@@ -2088,7 +2090,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>1</v>
       </c>
@@ -2096,7 +2098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>54</v>
       </c>
@@ -2104,7 +2106,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2112,7 +2114,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2120,7 +2122,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,7 +2130,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>7</v>
       </c>
@@ -2136,7 +2138,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>59</v>
       </c>
@@ -2144,7 +2146,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>61</v>
       </c>
@@ -2158,7 +2160,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
@@ -2166,7 +2168,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -2174,7 +2176,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>12</v>
       </c>
@@ -2182,7 +2184,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>13</v>
       </c>
@@ -2190,7 +2192,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>14</v>
       </c>
@@ -2198,7 +2200,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>15</v>
       </c>
@@ -2206,7 +2208,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>72</v>
       </c>
@@ -2214,7 +2216,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>17</v>
       </c>
@@ -2222,7 +2224,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>18</v>
       </c>
@@ -2230,7 +2232,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>19</v>
       </c>
@@ -2238,7 +2240,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>20</v>
       </c>
@@ -2246,7 +2248,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>21</v>
       </c>
@@ -2254,7 +2256,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>22</v>
       </c>
@@ -2262,7 +2264,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>23</v>
       </c>
@@ -2270,7 +2272,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>24</v>
       </c>
@@ -2278,27 +2280,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B79" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B80" t="s">
         <v>85</v>
       </c>
-      <c r="C80" s="19"/>
-    </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C80" s="21"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>27</v>
       </c>
@@ -2306,7 +2308,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -2314,7 +2316,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>29</v>
       </c>
@@ -2322,7 +2324,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>90</v>
       </c>
@@ -2330,37 +2332,37 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B85" t="s">
         <v>93</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B86" t="s">
         <v>96</v>
       </c>
-      <c r="C86" s="19"/>
-    </row>
-    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C86" s="21"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>99</v>
       </c>
@@ -2368,7 +2370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>101</v>
       </c>
@@ -2376,7 +2378,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>103</v>
       </c>
@@ -2384,7 +2386,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>36</v>
       </c>
@@ -2392,7 +2394,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>106</v>
       </c>
@@ -2400,7 +2402,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>38</v>
       </c>
@@ -2408,97 +2410,97 @@
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B96" t="s">
         <v>110</v>
       </c>
-      <c r="C96" s="19" t="s">
+      <c r="C96" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B97" t="s">
         <v>112</v>
       </c>
-      <c r="C97" s="21"/>
-    </row>
-    <row r="98" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C97" s="23"/>
+    </row>
+    <row r="98" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B98" t="s">
         <v>113</v>
       </c>
-      <c r="C98" s="21"/>
-    </row>
-    <row r="99" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C98" s="23"/>
+    </row>
+    <row r="99" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B99" t="s">
         <v>114</v>
       </c>
-      <c r="C99" s="21"/>
-    </row>
-    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C99" s="23"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B100" t="s">
         <v>116</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="C100" s="21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B101" t="s">
         <v>119</v>
       </c>
-      <c r="C101" s="19"/>
-    </row>
-    <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C101" s="21"/>
+    </row>
+    <row r="102" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B102" t="s">
         <v>121</v>
       </c>
-      <c r="C102" s="19"/>
-    </row>
-    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C102" s="21"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B103" t="s">
         <v>123</v>
       </c>
-      <c r="C103" s="19"/>
-    </row>
-    <row r="104" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C103" s="21"/>
+    </row>
+    <row r="104" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B104" t="s">
         <v>125</v>
       </c>
-      <c r="C104" s="19"/>
-    </row>
-    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C104" s="21"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>294</v>
       </c>
@@ -2568,8 +2570,8 @@
       <c r="B116" s="11"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="20"/>
-      <c r="B117" s="20"/>
+      <c r="A117" s="22"/>
+      <c r="B117" s="22"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="12"/>
@@ -2622,20 +2624,15 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D63" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D63" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3097,16 +3094,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3257,16 +3249,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW406"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
@@ -37927,20 +37914,15 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:P21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37963,7 +37945,7 @@
         <f>AVERAGE(I7,I8)</f>
         <v>81.754999999999995</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="19">
         <v>41621</v>
       </c>
       <c r="M7">
@@ -37976,11 +37958,29 @@
         <f>AVERAGE(M7,N7)</f>
         <v>130.16300000000001</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="19">
         <v>41621</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>9.8710000000000004</v>
+      </c>
+      <c r="E8">
+        <v>10.058</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
       <c r="I8">
         <v>81.754999999999995</v>
       </c>
@@ -37994,19 +37994,37 @@
         <f t="shared" ref="O8:O21" si="0">AVERAGE(M8,N8)</f>
         <v>140.24650000000003</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="19">
         <v>41631</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>10.281000000000001</v>
+      </c>
+      <c r="E9">
+        <v>118.182</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
       <c r="I9">
         <v>93.013000000000005</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J8:J36" si="1">AVERAGE(I9,I10)</f>
+        <f t="shared" ref="J9:J35" si="1">AVERAGE(I9,I10)</f>
         <v>93.013000000000005</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="19">
         <v>41631</v>
       </c>
       <c r="M9">
@@ -38019,11 +38037,29 @@
         <f t="shared" si="0"/>
         <v>150.4555</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="19">
         <v>41641</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>10.742000000000001</v>
+      </c>
+      <c r="E10">
+        <v>274.08100000000002</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
       <c r="I10">
         <v>93.013000000000005</v>
       </c>
@@ -38037,11 +38073,29 @@
         <f t="shared" si="0"/>
         <v>158.42349999999999</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="19">
         <v>41649</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>11.183</v>
+      </c>
+      <c r="E11">
+        <v>402.32100000000003</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
       <c r="I11">
         <v>104.27</v>
       </c>
@@ -38049,7 +38103,7 @@
         <f t="shared" si="1"/>
         <v>103.99549999999999</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="19">
         <v>41641</v>
       </c>
       <c r="M11">
@@ -38062,11 +38116,29 @@
         <f t="shared" si="0"/>
         <v>168.63249999999999</v>
       </c>
-      <c r="P11" s="22">
+      <c r="P11" s="19">
         <v>41659</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>11.613</v>
+      </c>
+      <c r="E12">
+        <v>482.78500000000003</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
       <c r="I12">
         <v>103.721</v>
       </c>
@@ -38080,11 +38152,29 @@
         <f t="shared" si="0"/>
         <v>178.96600000000001</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="19">
         <v>41669</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>12.054</v>
+      </c>
+      <c r="E13">
+        <v>588.39499999999998</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
       <c r="I13">
         <v>113.331</v>
       </c>
@@ -38092,7 +38182,7 @@
         <f t="shared" si="1"/>
         <v>113.0565</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="19">
         <v>41651</v>
       </c>
       <c r="M13">
@@ -38105,11 +38195,29 @@
         <f t="shared" si="0"/>
         <v>189.0505</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="19">
         <v>41679</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>12.515000000000001</v>
+      </c>
+      <c r="E14">
+        <v>706.57600000000002</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
       <c r="I14">
         <v>112.782</v>
       </c>
@@ -38123,11 +38231,29 @@
         <f t="shared" si="0"/>
         <v>199.38399999999999</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14" s="20">
         <v>41689</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>12.946</v>
+      </c>
+      <c r="E15">
+        <v>716.63400000000001</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
       <c r="I15">
         <v>124.31399999999999</v>
       </c>
@@ -38135,7 +38261,7 @@
         <f t="shared" si="1"/>
         <v>124.17699999999999</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="19">
         <v>41661</v>
       </c>
       <c r="M15">
@@ -38148,11 +38274,29 @@
         <f t="shared" si="0"/>
         <v>209.59200000000001</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="20">
         <v>41699</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>13.407</v>
+      </c>
+      <c r="E16">
+        <v>734.23599999999999</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
       <c r="I16">
         <v>124.04</v>
       </c>
@@ -38166,11 +38310,29 @@
         <f t="shared" si="0"/>
         <v>217.809</v>
       </c>
-      <c r="P16" s="23">
+      <c r="P16" s="20">
         <v>41707</v>
       </c>
     </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>14.217000000000001</v>
+      </c>
+      <c r="E17">
+        <v>744.29399999999998</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
       <c r="I17">
         <v>135.297</v>
       </c>
@@ -38178,7 +38340,7 @@
         <f t="shared" si="1"/>
         <v>135.43450000000001</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="19">
         <v>41671</v>
       </c>
       <c r="M17">
@@ -38191,11 +38353,29 @@
         <f t="shared" si="0"/>
         <v>225.9015</v>
       </c>
-      <c r="P17" s="22">
+      <c r="P17" s="19">
         <v>41716</v>
       </c>
     </row>
-    <row r="18" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>14.647</v>
+      </c>
+      <c r="E18">
+        <v>824.75800000000004</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
       <c r="I18">
         <v>135.572</v>
       </c>
@@ -38209,11 +38389,29 @@
         <f t="shared" si="0"/>
         <v>232.12650000000002</v>
       </c>
-      <c r="P18" s="23">
+      <c r="P18" s="20">
         <v>41722</v>
       </c>
     </row>
-    <row r="19" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>15.119</v>
+      </c>
+      <c r="E19">
+        <v>925.33799999999997</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
       <c r="I19">
         <v>146.83000000000001</v>
       </c>
@@ -38221,7 +38419,7 @@
         <f t="shared" si="1"/>
         <v>146.6925</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="19">
         <v>41681</v>
       </c>
       <c r="M19">
@@ -38234,11 +38432,29 @@
         <f t="shared" si="0"/>
         <v>239.34750000000003</v>
       </c>
-      <c r="P19" s="22">
+      <c r="P19" s="19">
         <v>41729</v>
       </c>
     </row>
-    <row r="20" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>355</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>15.548999999999999</v>
+      </c>
+      <c r="E20">
+        <v>1086.2670000000001</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
       <c r="I20">
         <v>146.55500000000001</v>
       </c>
@@ -38252,11 +38468,29 @@
         <f t="shared" si="0"/>
         <v>246.19499999999999</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="20">
         <v>41736</v>
       </c>
     </row>
-    <row r="21" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>355</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>15.98</v>
+      </c>
+      <c r="E21">
+        <v>1232.1079999999999</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
       <c r="I21">
         <v>158.08699999999999</v>
       </c>
@@ -38264,7 +38498,7 @@
         <f t="shared" si="1"/>
         <v>157.94999999999999</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="19">
         <v>41691</v>
       </c>
       <c r="M21">
@@ -38277,16 +38511,16 @@
         <f t="shared" si="0"/>
         <v>254.78550000000001</v>
       </c>
-      <c r="P21" s="22">
+      <c r="P21" s="19">
         <v>41745</v>
       </c>
     </row>
-    <row r="22" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I22">
         <v>157.81299999999999</v>
       </c>
     </row>
-    <row r="23" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I23">
         <v>169.07</v>
       </c>
@@ -38294,17 +38528,17 @@
         <f t="shared" si="1"/>
         <v>168.93299999999999</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="19">
         <v>41701</v>
       </c>
-      <c r="P23" s="22"/>
-    </row>
-    <row r="24" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="P23" s="19"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I24">
         <v>168.79599999999999</v>
       </c>
     </row>
-    <row r="25" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I25">
         <v>178.40600000000001</v>
       </c>
@@ -38312,17 +38546,17 @@
         <f t="shared" si="1"/>
         <v>178.26850000000002</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="19">
         <v>41711</v>
       </c>
-      <c r="P25" s="22"/>
-    </row>
-    <row r="26" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="19"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I26">
         <v>178.131</v>
       </c>
     </row>
-    <row r="27" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I27">
         <v>187.19200000000001</v>
       </c>
@@ -38330,17 +38564,17 @@
         <f t="shared" si="1"/>
         <v>187.19200000000001</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="19">
         <v>41720</v>
       </c>
-      <c r="P27" s="22"/>
-    </row>
-    <row r="28" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="P27" s="19"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I28">
         <v>187.19200000000001</v>
       </c>
     </row>
-    <row r="29" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I29">
         <v>193.233</v>
       </c>
@@ -38348,16 +38582,16 @@
         <f t="shared" si="1"/>
         <v>193.64499999999998</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="19">
         <v>41727</v>
       </c>
     </row>
-    <row r="30" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I30">
         <v>194.05699999999999</v>
       </c>
     </row>
-    <row r="31" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I31">
         <v>202.01900000000001</v>
       </c>
@@ -38366,7 +38600,7 @@
         <v>202.01900000000001</v>
       </c>
     </row>
-    <row r="32" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I32">
         <v>202.01900000000001</v>
       </c>
@@ -38401,10 +38635,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>